--- a/output/StructureDefinition-ImmunizationCL.xlsx
+++ b/output/StructureDefinition-ImmunizationCL.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-28T15:41:40-03:00</t>
+    <t>2024-01-08T08:41:20-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-ImmunizationCL.xlsx
+++ b/output/StructureDefinition-ImmunizationCL.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-08T08:41:20-03:00</t>
+    <t>2024-02-15T09:17:26-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-ImmunizationCL.xlsx
+++ b/output/StructureDefinition-ImmunizationCL.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-15T09:17:26-03:00</t>
+    <t>2024-02-15T14:15:38-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-ImmunizationCL.xlsx
+++ b/output/StructureDefinition-ImmunizationCL.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.8.6</t>
+    <t>1.8.7</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-15T14:15:38-03:00</t>
+    <t>2024-02-19T16:06:45-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-ImmunizationCL.xlsx
+++ b/output/StructureDefinition-ImmunizationCL.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-19T16:06:45-03:00</t>
+    <t>2024-05-08T11:32:37-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>HL7 Chile (http://hl7chile.cl, chair@hl7chile.cl)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -1916,17 +1916,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="47.3671875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="44.9375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="19.3203125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="38.4609375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.1484375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="47.66796875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="45.24609375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="19.69140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.90234375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.69921875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="139.546875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="139.3359375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1935,27 +1935,27 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.04296875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.77734375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.13671875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="64.84375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="57.41796875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="40.0859375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="15.703125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="13.125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="42.4296875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="8.84375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="15.71484375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="16.08984375" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.3125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="64.734375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="56.36328125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="40.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.98828125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.3046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="42.859375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.87890625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="26.69140625" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="143.35546875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="227.703125" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="33.05078125" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="156.00390625" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="26.71875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="142.6484375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="227.0390625" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="32.84375" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="158.01171875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/output/StructureDefinition-ImmunizationCL.xlsx
+++ b/output/StructureDefinition-ImmunizationCL.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-08T11:32:37-04:00</t>
+    <t>2024-05-08T11:46:20-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-ImmunizationCL.xlsx
+++ b/output/StructureDefinition-ImmunizationCL.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-19T16:06:45-03:00</t>
+    <t>2024-03-04T15:29:29-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-ImmunizationCL.xlsx
+++ b/output/StructureDefinition-ImmunizationCL.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.8.7</t>
+    <t>1.8.11</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-08T11:46:20-04:00</t>
+    <t>2024-06-13T17:23:26-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-ImmunizationCL.xlsx
+++ b/output/StructureDefinition-ImmunizationCL.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$83</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$66</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3075" uniqueCount="507">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2451" uniqueCount="434">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.8.7</t>
+    <t>1.8.11</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-08T11:46:20-04:00</t>
+    <t>2024-06-17T14:21:27-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -434,21 +434,21 @@
     <t>Immunization.extension</t>
   </si>
   <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
     <t xml:space="preserve">Extension
 </t>
   </si>
   <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>open</t>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
     <t>DomainResource.extension</t>
@@ -458,31 +458,7 @@
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
-    <t>Immunization.extension:campana</t>
-  </si>
-  <si>
-    <t>campana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://hl7chile.cl/fhir/ig/clcore/StructureDefinition/NombreCampana}
-</t>
-  </si>
-  <si>
-    <t>Nombre de la Campaña de vacunación establecida por el RNI (Registro Nacional de Inmunizaciones)</t>
-  </si>
-  <si>
-    <t>Esta extensión incluye los nombres de las distintas Campañas que se realizan y estan registradas en el RNI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
     <t>Immunization.modifierExtension</t>
-  </si>
-  <si>
-    <t>extensions
-user content</t>
   </si>
   <si>
     <t>Extensions that cannot be ignored</t>
@@ -492,9 +468,6 @@
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
     <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
   </si>
   <si>
@@ -584,271 +557,157 @@
     <t>.inboundRelationship[typeCode=SUBJ].source[classCode=CACT, moodCode=EVN].reasonCOde</t>
   </si>
   <si>
-    <t>Immunization.statusReason.id</t>
+    <t>Immunization.vaccineCode</t>
+  </si>
+  <si>
+    <t>Vacuna que se administró o se iba a administrar</t>
+  </si>
+  <si>
+    <t>Vacuna que se administró o se iba a administrar. Se proporciona valores que utilizan en el RNI (Registro Nacional de Inmunizaciones)</t>
+  </si>
+  <si>
+    <t>The code for vaccine product administered.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/vaccine-code</t>
+  </si>
+  <si>
+    <t>Event.code</t>
+  </si>
+  <si>
+    <t>RXA-5</t>
+  </si>
+  <si>
+    <t>.code</t>
+  </si>
+  <si>
+    <t>FiveWs.what[x]</t>
+  </si>
+  <si>
+    <t>ClinicalDocument/component/StructuredBody/component/section/entry/substanceAdministration/consumable/manfacturedProduct/manufacturedMaterial/realmCode/code</t>
+  </si>
+  <si>
+    <t>Immunization.patient</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(https://hl7chile.cl/fhir/ig/clcore/StructureDefinition/CorePacienteCl)
+</t>
+  </si>
+  <si>
+    <t>Paciente inmunizado</t>
+  </si>
+  <si>
+    <t>El paciente que recibió o no recibió la inmunización</t>
+  </si>
+  <si>
+    <t>Event.subject</t>
+  </si>
+  <si>
+    <t>PID-3</t>
+  </si>
+  <si>
+    <t>.partipication[ttypeCode=].role</t>
+  </si>
+  <si>
+    <t>FiveWs.subject</t>
+  </si>
+  <si>
+    <t>Immunization.encounter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Encounter)
+</t>
+  </si>
+  <si>
+    <t>Encounter immunization was part of</t>
+  </si>
+  <si>
+    <t>The visit or admission or other contact between patient and health care provider the immunization was performed as part of.</t>
+  </si>
+  <si>
+    <t>Event.context</t>
+  </si>
+  <si>
+    <t>PV1-19</t>
+  </si>
+  <si>
+    <t>component-&gt;EncounterEvent</t>
+  </si>
+  <si>
+    <t>FiveWs.context</t>
+  </si>
+  <si>
+    <t>Immunization.occurrence[x]</t>
+  </si>
+  <si>
+    <t>dateTime
+string</t>
+  </si>
+  <si>
+    <t>Momento de administración de la vacuna</t>
+  </si>
+  <si>
+    <t>Momento en la que se realiza la inmunización o se administra la vacuna</t>
+  </si>
+  <si>
+    <t>When immunizations are given a specific date and time should always be known.   When immunizations are patient reported, a specific date might not be known.  Although partial dates are allowed, an adult patient might not be able to recall the year a childhood immunization was given. An exact date is always preferable, but the use of the String data type is acceptable when an exact date is not known. A small number of vaccines (e.g. live oral typhoid vaccine) are given as a series of patient self-administered dose over a span of time. In cases like this, often, only the first dose (typically a provider supervised dose) is recorded with the occurrence indicating the date/time of the first dose.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type:$this}
+</t>
+  </si>
+  <si>
+    <t>closed</t>
+  </si>
+  <si>
+    <t>Event.occurrence[x]</t>
+  </si>
+  <si>
+    <t>RXA-3</t>
+  </si>
+  <si>
+    <t>.effectiveTime</t>
+  </si>
+  <si>
+    <t>FiveWs.done[x]</t>
+  </si>
+  <si>
+    <t>ClinicalDocument/component/StructuredBody/component/section/entry/substanceAdministration/effectiveTime/value</t>
+  </si>
+  <si>
+    <t>Immunization.occurrence[x]:occurrenceDateTime</t>
+  </si>
+  <si>
+    <t>occurrenceDateTime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dateTime
+</t>
+  </si>
+  <si>
+    <t>Fecha y hora de la administración</t>
+  </si>
+  <si>
+    <t>Date vaccine administered or was to be administered.</t>
+  </si>
+  <si>
+    <t>Immunization.occurrence[x]:occurrenceString</t>
+  </si>
+  <si>
+    <t>occurrenceString</t>
   </si>
   <si>
     <t xml:space="preserve">string
 </t>
   </si>
   <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>Immunization.statusReason.extension</t>
-  </si>
-  <si>
-    <t>Motivo de no realizar la inmunización</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
-  </si>
-  <si>
-    <t>Immunization.statusReason.extension:statusReason</t>
-  </si>
-  <si>
-    <t>statusReason</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://hl7chile.cl/fhir/ig/clcore/StructureDefinition/RazonNOrealizarseInm}
-</t>
-  </si>
-  <si>
-    <t>Razones por las cuales no se pudo realizar la inmunización</t>
-  </si>
-  <si>
-    <t>Esta extensión incluye las razones por la cuales no pudo llevarse a cabo la inmunización</t>
-  </si>
-  <si>
-    <t>Immunization.statusReason.coding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coding
-</t>
-  </si>
-  <si>
-    <t>Code defined by a terminology system</t>
-  </si>
-  <si>
-    <t>A reference to a code defined by a terminology system.</t>
-  </si>
-  <si>
-    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
-  </si>
-  <si>
-    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
-  </si>
-  <si>
-    <t>CodeableConcept.coding</t>
-  </si>
-  <si>
-    <t>C*E.1-8, C*E.10-22</t>
-  </si>
-  <si>
-    <t>union(., ./translation)</t>
-  </si>
-  <si>
-    <t>Immunization.statusReason.text</t>
-  </si>
-  <si>
-    <t>Plain text representation of the concept</t>
-  </si>
-  <si>
-    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
-  </si>
-  <si>
-    <t>Very often the text is the same as a displayName of one of the codings.</t>
-  </si>
-  <si>
-    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
-  </si>
-  <si>
-    <t>CodeableConcept.text</t>
-  </si>
-  <si>
-    <t>C*E.9. But note many systems use C*E.2 for this</t>
-  </si>
-  <si>
-    <t>./originalText[mediaType/code="text/plain"]/data</t>
-  </si>
-  <si>
-    <t>Immunization.vaccineCode</t>
-  </si>
-  <si>
-    <t>Vacuna que se administró o se iba a administrar</t>
-  </si>
-  <si>
-    <t>Vacuna que se administró o se iba a administrar. Se proporciona valores que utilizan en el RNI (Registro Nacional de Inmunizaciones)</t>
-  </si>
-  <si>
-    <t>The code for vaccine product administered.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/vaccine-code</t>
-  </si>
-  <si>
-    <t>Event.code</t>
-  </si>
-  <si>
-    <t>RXA-5</t>
-  </si>
-  <si>
-    <t>.code</t>
-  </si>
-  <si>
-    <t>FiveWs.what[x]</t>
-  </si>
-  <si>
-    <t>ClinicalDocument/component/StructuredBody/component/section/entry/substanceAdministration/consumable/manfacturedProduct/manufacturedMaterial/realmCode/code</t>
-  </si>
-  <si>
-    <t>Immunization.vaccineCode.id</t>
-  </si>
-  <si>
-    <t>Immunization.vaccineCode.extension</t>
-  </si>
-  <si>
-    <t>Nombre de vacuna administrada</t>
-  </si>
-  <si>
-    <t>Immunization.vaccineCode.extension:tipov</t>
-  </si>
-  <si>
-    <t>tipov</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://hl7chile.cl/fhir/ig/clcore/StructureDefinition/TiposVacunaRNI}
-</t>
-  </si>
-  <si>
-    <t>Código de tipos de Vacunas en Chile</t>
-  </si>
-  <si>
-    <t>Esta extensión incluye códigos de los tipos de vacunas que existe en el Registro Nacional de Inmunizaciones RNI</t>
-  </si>
-  <si>
-    <t>Immunization.vaccineCode.coding</t>
-  </si>
-  <si>
-    <t>Immunization.vaccineCode.text</t>
-  </si>
-  <si>
-    <t>Immunization.patient</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(https://hl7chile.cl/fhir/ig/clcore/StructureDefinition/CorePacienteCl)
-</t>
-  </si>
-  <si>
-    <t>Paciente inmunizado</t>
-  </si>
-  <si>
-    <t>El paciente que recibió o no recibió la inmunización</t>
-  </si>
-  <si>
-    <t>Event.subject</t>
-  </si>
-  <si>
-    <t>PID-3</t>
-  </si>
-  <si>
-    <t>.partipication[ttypeCode=].role</t>
-  </si>
-  <si>
-    <t>FiveWs.subject</t>
-  </si>
-  <si>
-    <t>Immunization.encounter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Encounter)
-</t>
-  </si>
-  <si>
-    <t>Encounter immunization was part of</t>
-  </si>
-  <si>
-    <t>The visit or admission or other contact between patient and health care provider the immunization was performed as part of.</t>
-  </si>
-  <si>
-    <t>Event.context</t>
-  </si>
-  <si>
-    <t>PV1-19</t>
-  </si>
-  <si>
-    <t>component-&gt;EncounterEvent</t>
-  </si>
-  <si>
-    <t>FiveWs.context</t>
-  </si>
-  <si>
-    <t>Immunization.occurrence[x]</t>
-  </si>
-  <si>
-    <t>dateTime
-string</t>
-  </si>
-  <si>
-    <t>Vaccine administration date</t>
-  </si>
-  <si>
-    <t>Date vaccine administered or was to be administered.</t>
-  </si>
-  <si>
-    <t>When immunizations are given a specific date and time should always be known.   When immunizations are patient reported, a specific date might not be known.  Although partial dates are allowed, an adult patient might not be able to recall the year a childhood immunization was given. An exact date is always preferable, but the use of the String data type is acceptable when an exact date is not known. A small number of vaccines (e.g. live oral typhoid vaccine) are given as a series of patient self-administered dose over a span of time. In cases like this, often, only the first dose (typically a provider supervised dose) is recorded with the occurrence indicating the date/time of the first dose.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">type:$this}
-</t>
-  </si>
-  <si>
-    <t>Event.occurrence[x]</t>
-  </si>
-  <si>
-    <t>RXA-3</t>
-  </si>
-  <si>
-    <t>.effectiveTime</t>
-  </si>
-  <si>
-    <t>FiveWs.done[x]</t>
-  </si>
-  <si>
-    <t>ClinicalDocument/component/StructuredBody/component/section/entry/substanceAdministration/effectiveTime/value</t>
-  </si>
-  <si>
-    <t>Immunization.occurrence[x]:occurrenceDateTime</t>
-  </si>
-  <si>
-    <t>occurrenceDateTime</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dateTime
-</t>
-  </si>
-  <si>
-    <t>Fecha de administración de la vacuna</t>
-  </si>
-  <si>
-    <t>Fecha y hora en la que se realiza la inmunización o se administra la vacuna</t>
+    <t>Momento de la administración</t>
   </si>
   <si>
     <t>Immunization.recorded</t>
   </si>
   <si>
-    <t>Cuando la inmunización se capturó por primera vez en el registro del sujeto</t>
+    <t>Cuando se realizo el regstro del la inmunización</t>
   </si>
   <si>
     <t>La fecha en que se registró por primera vez la ocurrencia de la inmunización, potencialmente significativamente después de la ocurrencia del evento</t>
@@ -931,111 +790,6 @@
     <t>FiveWs.where[x]</t>
   </si>
   <si>
-    <t>Immunization.location.id</t>
-  </si>
-  <si>
-    <t>Immunization.location.extension</t>
-  </si>
-  <si>
-    <t>Extensión para los Sistemas de Salud, por ejemplo: S.S Viña del mar Quillota</t>
-  </si>
-  <si>
-    <t>Immunization.location.extension:ssalud</t>
-  </si>
-  <si>
-    <t>ssalud</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://hl7chile.cl/fhir/ig/clcore/StructureDefinition/ServicioSalud}
-</t>
-  </si>
-  <si>
-    <t>Sistema Nacional de Servicios de Salud</t>
-  </si>
-  <si>
-    <t>Esta extensión incluye los códigos de los Servicios de Salud que existen en el país</t>
-  </si>
-  <si>
-    <t>Immunization.location.reference</t>
-  </si>
-  <si>
-    <t>Literal reference, Relative, internal or absolute URL</t>
-  </si>
-  <si>
-    <t>A reference to a location at which the other resource is found. The reference may be a relative reference, in which case it is relative to the service base URL, or an absolute URL that resolves to the location where the resource is found. The reference may be version specific or not. If the reference is not to a FHIR RESTful server, then it should be assumed to be version specific. Internal fragment references (start with '#') refer to contained resources.</t>
-  </si>
-  <si>
-    <t>Using absolute URLs provides a stable scalable approach suitable for a cloud/web context, while using relative/logical references provides a flexible approach suitable for use when trading across closed eco-system boundaries.   Absolute URLs do not need to point to a FHIR RESTful server, though this is the preferred approach. If the URL conforms to the structure "/[type]/[id]" then it should be assumed that the reference is to a FHIR RESTful server.</t>
-  </si>
-  <si>
-    <t>Reference.reference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ref-1
-</t>
-  </si>
-  <si>
-    <t>Immunization.location.type</t>
-  </si>
-  <si>
-    <t>Type the reference refers to (e.g. "Patient")</t>
-  </si>
-  <si>
-    <t>The expected type of the target of the reference. If both Reference.type and Reference.reference are populated and Reference.reference is a FHIR URL, both SHALL be consistent.
-The type is the Canonical URL of Resource Definition that is the type this reference refers to. References are URLs that are relative to http://hl7.org/fhir/StructureDefinition/ e.g. "Patient" is a reference to http://hl7.org/fhir/StructureDefinition/Patient. Absolute URLs are only allowed for logical models (and can only be used in references in logical models, not resources).</t>
-  </si>
-  <si>
-    <t>This element is used to indicate the type of  the target of the reference. This may be used which ever of the other elements are populated (or not). In some cases, the type of the target may be determined by inspection of the reference (e.g. a RESTful URL) or by resolving the target of the reference; if both the type and a reference is provided, the reference SHALL resolve to a resource of the same type as that specified.</t>
-  </si>
-  <si>
-    <t>extensible</t>
-  </si>
-  <si>
-    <t>Aa resource (or, for logical models, the URI of the logical model).</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/resource-types</t>
-  </si>
-  <si>
-    <t>Reference.type</t>
-  </si>
-  <si>
-    <t>Immunization.location.identifier</t>
-  </si>
-  <si>
-    <t>Logical reference, when literal reference is not known</t>
-  </si>
-  <si>
-    <t>An identifier for the target resource. This is used when there is no way to reference the other resource directly, either because the entity it represents is not available through a FHIR server, or because there is no way for the author of the resource to convert a known identifier to an actual location. There is no requirement that a Reference.identifier point to something that is actually exposed as a FHIR instance, but it SHALL point to a business concept that would be expected to be exposed as a FHIR instance, and that instance would need to be of a FHIR resource type allowed by the reference.</t>
-  </si>
-  <si>
-    <t>When an identifier is provided in place of a reference, any system processing the reference will only be able to resolve the identifier to a reference if it understands the business context in which the identifier is used. Sometimes this is global (e.g. a national identifier) but often it is not. For this reason, none of the useful mechanisms described for working with references (e.g. chaining, includes) are possible, nor should servers be expected to be able resolve the reference. Servers may accept an identifier based reference untouched, resolve it, and/or reject it - see CapabilityStatement.rest.resource.referencePolicy. 
-When both an identifier and a literal reference are provided, the literal reference is preferred. Applications processing the resource are allowed - but not required - to check that the identifier matches the literal reference
-Applications converting a logical reference to a literal reference may choose to leave the logical reference present, or remove it.
-Reference is intended to point to a structure that can potentially be expressed as a FHIR resource, though there is no need for it to exist as an actual FHIR resource instance - except in as much as an application wishes to actual find the target of the reference. The content referred to be the identifier must meet the logical constraints implied by any limitations on what resource types are permitted for the reference.  For example, it would not be legitimate to send the identifier for a drug prescription if the type were Reference(Observation|DiagnosticReport).  One of the use-cases for Reference.identifier is the situation where no FHIR representation exists (where the type is Reference (Any).</t>
-  </si>
-  <si>
-    <t>Reference.identifier</t>
-  </si>
-  <si>
-    <t>.identifier</t>
-  </si>
-  <si>
-    <t>Immunization.location.display</t>
-  </si>
-  <si>
-    <t>Text alternative for the resource</t>
-  </si>
-  <si>
-    <t>Plain text narrative that identifies the resource in addition to the resource reference.</t>
-  </si>
-  <si>
-    <t>This is generally not the same as the Resource.text of the referenced resource.  The purpose is to identify what's being referenced, not to fully describe it.</t>
-  </si>
-  <si>
-    <t>Reference.display</t>
-  </si>
-  <si>
     <t>Immunization.manufacturer</t>
   </si>
   <si>
@@ -1187,13 +941,25 @@
     <t>Immunization.performer.id</t>
   </si>
   <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
     <t>Immunization.performer.extension</t>
   </si>
   <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
     <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
   </si>
   <si>
     <t>Immunization.performer.modifierExtension</t>
@@ -1220,6 +986,9 @@
   </si>
   <si>
     <t>Describes the type of performance (e.g. ordering provider, administering provider, etc.).</t>
+  </si>
+  <si>
+    <t>extensible</t>
   </si>
   <si>
     <t>The role a practitioner or organization plays in the immunization event.</t>
@@ -1907,7 +1676,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO83"/>
+  <dimension ref="A1:AO66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1916,7 +1685,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="47.66796875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="45.48828125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="45.24609375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="19.69140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
@@ -1944,7 +1713,7 @@
     <col min="26" max="26" width="56.36328125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="40.0390625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.8203125" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.98828125" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="12.3046875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="42.859375" customWidth="true" bestFit="true" hidden="true"/>
@@ -2907,7 +2676,7 @@
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2926,15 +2695,17 @@
         <v>79</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="N9" s="2"/>
+        <v>138</v>
+      </c>
+      <c r="N9" t="s" s="2">
+        <v>139</v>
+      </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
         <v>79</v>
@@ -2971,14 +2742,16 @@
         <v>79</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="AC9" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="AC9" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="AD9" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>139</v>
+        <v>79</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>140</v>
@@ -3002,7 +2775,7 @@
         <v>79</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>79</v>
+        <v>133</v>
       </c>
       <c r="AN9" t="s" s="2">
         <v>79</v>
@@ -3016,41 +2789,43 @@
         <v>142</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="C10" t="s" s="2">
-        <v>143</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>79</v>
       </c>
       <c r="K10" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="L10" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="M10" t="s" s="2">
         <v>144</v>
       </c>
-      <c r="L10" t="s" s="2">
+      <c r="N10" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="O10" t="s" s="2">
         <v>145</v>
       </c>
-      <c r="M10" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
         <v>79</v>
       </c>
@@ -3098,7 +2873,7 @@
         <v>79</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>80</v>
@@ -3107,7 +2882,7 @@
         <v>81</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>147</v>
+        <v>79</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>141</v>
@@ -3119,7 +2894,7 @@
         <v>79</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>79</v>
+        <v>133</v>
       </c>
       <c r="AN10" t="s" s="2">
         <v>79</v>
@@ -3130,14 +2905,14 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>149</v>
+        <v>79</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
@@ -3147,29 +2922,25 @@
         <v>81</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="J11" t="s" s="2">
         <v>79</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="L11" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="M11" t="s" s="2">
         <v>150</v>
       </c>
-      <c r="M11" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="N11" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="O11" t="s" s="2">
-        <v>153</v>
-      </c>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
         <v>79</v>
       </c>
@@ -3217,7 +2988,7 @@
         <v>79</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>80</v>
@@ -3229,22 +3000,22 @@
         <v>79</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>79</v>
+        <v>151</v>
       </c>
       <c r="AL11" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>133</v>
+        <v>152</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>79</v>
+        <v>153</v>
       </c>
       <c r="AO11" t="s" s="2">
-        <v>79</v>
+        <v>154</v>
       </c>
     </row>
     <row r="12" hidden="true">
@@ -3260,30 +3031,32 @@
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>91</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="K12" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="L12" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="L12" t="s" s="2">
+      <c r="M12" t="s" s="2">
         <v>157</v>
       </c>
-      <c r="M12" t="s" s="2">
+      <c r="N12" t="s" s="2">
         <v>158</v>
       </c>
-      <c r="N12" s="2"/>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
         <v>79</v>
@@ -3308,13 +3081,11 @@
         <v>79</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y12" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="Y12" s="2"/>
       <c r="Z12" t="s" s="2">
-        <v>79</v>
+        <v>160</v>
       </c>
       <c r="AA12" t="s" s="2">
         <v>79</v>
@@ -3335,10 +3106,10 @@
         <v>155</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>79</v>
@@ -3347,27 +3118,27 @@
         <v>102</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="AL12" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="AO12" t="s" s="2">
-        <v>162</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3375,7 +3146,7 @@
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>90</v>
@@ -3384,22 +3155,22 @@
         <v>91</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>110</v>
+        <v>165</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -3425,11 +3196,13 @@
         <v>79</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="Y13" s="2"/>
+        <v>169</v>
+      </c>
+      <c r="Y13" t="s" s="2">
+        <v>170</v>
+      </c>
       <c r="Z13" t="s" s="2">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="AA13" t="s" s="2">
         <v>79</v>
@@ -3447,10 +3220,10 @@
         <v>79</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>90</v>
@@ -3462,16 +3235,16 @@
         <v>102</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>171</v>
+        <v>79</v>
       </c>
       <c r="AO13" t="s" s="2">
         <v>79</v>
@@ -3479,10 +3252,10 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3490,7 +3263,7 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>90</v>
@@ -3502,20 +3275,18 @@
         <v>79</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="N14" t="s" s="2">
         <v>176</v>
       </c>
+      <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
         <v>79</v>
@@ -3540,14 +3311,14 @@
         <v>79</v>
       </c>
       <c r="X14" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="Y14" t="s" s="2">
         <v>177</v>
       </c>
-      <c r="Y14" t="s" s="2">
+      <c r="Z14" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="Z14" t="s" s="2">
-        <v>179</v>
-      </c>
       <c r="AA14" t="s" s="2">
         <v>79</v>
       </c>
@@ -3564,10 +3335,10 @@
         <v>79</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>90</v>
@@ -3579,27 +3350,27 @@
         <v>102</v>
       </c>
       <c r="AK14" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="AL14" t="s" s="2">
         <v>180</v>
-      </c>
-      <c r="AL14" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>181</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>79</v>
+        <v>182</v>
       </c>
       <c r="AO14" t="s" s="2">
-        <v>79</v>
+        <v>183</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3607,28 +3378,28 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>90</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="I15" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -3679,10 +3450,10 @@
         <v>79</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>90</v>
@@ -3691,19 +3462,19 @@
         <v>79</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>79</v>
+        <v>102</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>79</v>
+        <v>188</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>79</v>
+        <v>189</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>79</v>
+        <v>191</v>
       </c>
       <c r="AO15" t="s" s="2">
         <v>79</v>
@@ -3711,10 +3482,10 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3725,7 +3496,7 @@
         <v>80</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>79</v>
@@ -3737,13 +3508,13 @@
         <v>79</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>135</v>
+        <v>193</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>137</v>
+        <v>195</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -3782,43 +3553,43 @@
         <v>79</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>138</v>
+        <v>79</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>190</v>
+        <v>79</v>
       </c>
       <c r="AD16" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>139</v>
+        <v>79</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>79</v>
+        <v>196</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>79</v>
+        <v>197</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>79</v>
+        <v>198</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>79</v>
+        <v>199</v>
       </c>
       <c r="AO16" t="s" s="2">
         <v>79</v>
@@ -3826,43 +3597,43 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="C17" t="s" s="2">
-        <v>193</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
         <v>79</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>90</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="I17" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="N17" s="2"/>
+        <v>203</v>
+      </c>
+      <c r="N17" t="s" s="2">
+        <v>204</v>
+      </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
         <v>79</v>
@@ -3899,56 +3670,56 @@
         <v>79</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC17" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="AC17" s="2"/>
       <c r="AD17" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>79</v>
+        <v>206</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>79</v>
+        <v>207</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>79</v>
+        <v>208</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>79</v>
+        <v>209</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>79</v>
+        <v>210</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>79</v>
+        <v>211</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>197</v>
+        <v>212</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="C18" s="2"/>
+        <v>200</v>
+      </c>
+      <c r="C18" t="s" s="2">
+        <v>213</v>
+      </c>
       <c r="D18" t="s" s="2">
         <v>79</v>
       </c>
@@ -3957,7 +3728,7 @@
         <v>80</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>79</v>
@@ -3969,20 +3740,18 @@
         <v>91</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>198</v>
+        <v>214</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>199</v>
+        <v>215</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>200</v>
+        <v>216</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="O18" t="s" s="2">
-        <v>202</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
         <v>79</v>
       </c>
@@ -4030,13 +3799,13 @@
         <v>79</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>79</v>
@@ -4045,29 +3814,31 @@
         <v>102</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>79</v>
+        <v>207</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>79</v>
+        <v>210</v>
       </c>
       <c r="AO18" t="s" s="2">
-        <v>79</v>
+        <v>211</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="C19" s="2"/>
+        <v>200</v>
+      </c>
+      <c r="C19" t="s" s="2">
+        <v>218</v>
+      </c>
       <c r="D19" t="s" s="2">
         <v>79</v>
       </c>
@@ -4088,20 +3859,18 @@
         <v>91</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>183</v>
+        <v>219</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="O19" t="s" s="2">
-        <v>210</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>79</v>
       </c>
@@ -4149,10 +3918,10 @@
         <v>79</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>90</v>
@@ -4164,27 +3933,27 @@
         <v>102</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>79</v>
+        <v>207</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>79</v>
+        <v>210</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>79</v>
+        <v>211</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4192,7 +3961,7 @@
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>90</v>
@@ -4204,16 +3973,16 @@
         <v>79</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>173</v>
+        <v>214</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -4240,13 +4009,13 @@
         <v>79</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>177</v>
+        <v>79</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>217</v>
+        <v>79</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>218</v>
+        <v>79</v>
       </c>
       <c r="AA20" t="s" s="2">
         <v>79</v>
@@ -4264,10 +4033,10 @@
         <v>79</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>90</v>
@@ -4279,27 +4048,27 @@
         <v>102</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>219</v>
+        <v>79</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>220</v>
+        <v>79</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="AO20" t="s" s="2">
-        <v>223</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4319,18 +4088,20 @@
         <v>79</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>183</v>
+        <v>227</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>184</v>
+        <v>228</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="N21" s="2"/>
+        <v>229</v>
+      </c>
+      <c r="N21" t="s" s="2">
+        <v>230</v>
+      </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
         <v>79</v>
@@ -4379,7 +4150,7 @@
         <v>79</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>186</v>
+        <v>226</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>80</v>
@@ -4391,19 +4162,19 @@
         <v>79</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>79</v>
+        <v>102</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>79</v>
+        <v>231</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>187</v>
+        <v>232</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>79</v>
+        <v>233</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>79</v>
@@ -4411,10 +4182,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4422,10 +4193,10 @@
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>79</v>
@@ -4437,15 +4208,17 @@
         <v>79</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>135</v>
+        <v>165</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="N22" s="2"/>
+        <v>236</v>
+      </c>
+      <c r="N22" t="s" s="2">
+        <v>237</v>
+      </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>79</v>
@@ -4470,55 +4243,55 @@
         <v>79</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>79</v>
+        <v>169</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>79</v>
+        <v>238</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>79</v>
+        <v>239</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>138</v>
+        <v>79</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>190</v>
+        <v>79</v>
       </c>
       <c r="AD22" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>139</v>
+        <v>79</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>191</v>
+        <v>234</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>79</v>
+        <v>231</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>79</v>
+        <v>240</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>79</v>
+        <v>233</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>79</v>
@@ -4526,26 +4299,24 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>227</v>
+        <v>241</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="C23" t="s" s="2">
-        <v>228</v>
-      </c>
+        <v>241</v>
+      </c>
+      <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
         <v>79</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>90</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="I23" t="s" s="2">
         <v>79</v>
@@ -4554,13 +4325,13 @@
         <v>79</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>229</v>
+        <v>242</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>230</v>
+        <v>243</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>231</v>
+        <v>244</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -4611,31 +4382,31 @@
         <v>79</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>191</v>
+        <v>241</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>79</v>
+        <v>245</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>79</v>
+        <v>246</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>79</v>
+        <v>247</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>79</v>
+        <v>248</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>79</v>
@@ -4643,10 +4414,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>232</v>
+        <v>249</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>232</v>
+        <v>249</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4657,7 +4428,7 @@
         <v>80</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>79</v>
@@ -4666,23 +4437,19 @@
         <v>79</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>198</v>
+        <v>250</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>199</v>
+        <v>251</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="O24" t="s" s="2">
-        <v>202</v>
-      </c>
+        <v>252</v>
+      </c>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>79</v>
       </c>
@@ -4730,13 +4497,13 @@
         <v>79</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>203</v>
+        <v>249</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>79</v>
@@ -4748,24 +4515,24 @@
         <v>79</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>204</v>
+        <v>253</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>205</v>
+        <v>254</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>79</v>
+        <v>255</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>233</v>
+        <v>256</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>233</v>
+        <v>256</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4779,29 +4546,25 @@
         <v>90</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="I25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>183</v>
+        <v>219</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>207</v>
+        <v>257</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="O25" t="s" s="2">
-        <v>210</v>
-      </c>
+        <v>258</v>
+      </c>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>79</v>
       </c>
@@ -4849,7 +4612,7 @@
         <v>79</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>211</v>
+        <v>256</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>80</v>
@@ -4867,24 +4630,24 @@
         <v>79</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>212</v>
+        <v>259</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>213</v>
+        <v>260</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>79</v>
+        <v>261</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>234</v>
+        <v>262</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>234</v>
+        <v>262</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4892,7 +4655,7 @@
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>90</v>
@@ -4904,16 +4667,16 @@
         <v>79</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>235</v>
+        <v>263</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>236</v>
+        <v>264</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>237</v>
+        <v>265</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -4964,10 +4727,10 @@
         <v>79</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>234</v>
+        <v>262</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>90</v>
@@ -4979,16 +4742,16 @@
         <v>102</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>238</v>
+        <v>79</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>239</v>
+        <v>266</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>240</v>
+        <v>267</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>241</v>
+        <v>79</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>79</v>
@@ -4996,10 +4759,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>242</v>
+        <v>268</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>242</v>
+        <v>268</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5022,13 +4785,13 @@
         <v>79</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>243</v>
+        <v>165</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>244</v>
+        <v>269</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>245</v>
+        <v>270</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -5055,13 +4818,13 @@
         <v>79</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>79</v>
+        <v>169</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>79</v>
+        <v>271</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>79</v>
+        <v>272</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>79</v>
@@ -5079,7 +4842,7 @@
         <v>79</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>242</v>
+        <v>268</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>80</v>
@@ -5094,27 +4857,27 @@
         <v>102</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>246</v>
+        <v>79</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>247</v>
+        <v>273</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>248</v>
+        <v>274</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>249</v>
+        <v>79</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>79</v>
+        <v>275</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>250</v>
+        <v>276</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>250</v>
+        <v>276</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5122,7 +4885,7 @@
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>90</v>
@@ -5134,20 +4897,18 @@
         <v>79</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>251</v>
+        <v>165</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>252</v>
+        <v>277</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>254</v>
-      </c>
+        <v>278</v>
+      </c>
+      <c r="N28" s="2"/>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>79</v>
@@ -5172,32 +4933,34 @@
         <v>79</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>79</v>
+        <v>169</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>79</v>
+        <v>279</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>79</v>
+        <v>280</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="AC28" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="AC28" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="AD28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>139</v>
+        <v>79</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>250</v>
+        <v>276</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>90</v>
@@ -5209,31 +4972,29 @@
         <v>102</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>256</v>
+        <v>79</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>257</v>
+        <v>281</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>258</v>
+        <v>282</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>259</v>
+        <v>79</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>260</v>
+        <v>283</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>261</v>
+        <v>284</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="C29" t="s" s="2">
-        <v>262</v>
-      </c>
+        <v>284</v>
+      </c>
+      <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
         <v>79</v>
       </c>
@@ -5245,26 +5006,24 @@
         <v>90</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="I29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>263</v>
+        <v>285</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>264</v>
+        <v>286</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>254</v>
-      </c>
+        <v>287</v>
+      </c>
+      <c r="N29" s="2"/>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>79</v>
@@ -5313,10 +5072,10 @@
         <v>79</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>250</v>
+        <v>284</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>90</v>
@@ -5328,27 +5087,27 @@
         <v>102</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>256</v>
+        <v>79</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>257</v>
+        <v>288</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>258</v>
+        <v>289</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>259</v>
+        <v>79</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>260</v>
+        <v>79</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>266</v>
+        <v>290</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>266</v>
+        <v>290</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5359,7 +5118,7 @@
         <v>80</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>91</v>
@@ -5368,16 +5127,16 @@
         <v>79</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>263</v>
+        <v>291</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>267</v>
+        <v>292</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>268</v>
+        <v>293</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -5428,13 +5187,13 @@
         <v>79</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>266</v>
+        <v>290</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>79</v>
@@ -5443,16 +5202,16 @@
         <v>102</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>79</v>
+        <v>294</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>79</v>
+        <v>295</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>269</v>
+        <v>296</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>270</v>
+        <v>79</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>79</v>
@@ -5460,10 +5219,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>271</v>
+        <v>297</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>271</v>
+        <v>297</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5483,20 +5242,18 @@
         <v>79</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>272</v>
+        <v>219</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>273</v>
+        <v>298</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>275</v>
-      </c>
+        <v>299</v>
+      </c>
+      <c r="N31" s="2"/>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>79</v>
@@ -5545,7 +5302,7 @@
         <v>79</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>271</v>
+        <v>300</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>80</v>
@@ -5557,19 +5314,19 @@
         <v>79</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>276</v>
+        <v>79</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>277</v>
+        <v>301</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>278</v>
+        <v>79</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>79</v>
@@ -5577,21 +5334,21 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>279</v>
+        <v>302</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>279</v>
+        <v>302</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>79</v>
@@ -5603,16 +5360,16 @@
         <v>79</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>173</v>
+        <v>136</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>280</v>
+        <v>137</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>281</v>
+        <v>303</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>282</v>
+        <v>139</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -5638,13 +5395,13 @@
         <v>79</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>177</v>
+        <v>79</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>283</v>
+        <v>79</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>284</v>
+        <v>79</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>79</v>
@@ -5662,31 +5419,31 @@
         <v>79</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>279</v>
+        <v>304</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>276</v>
+        <v>79</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>285</v>
+        <v>301</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>278</v>
+        <v>79</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>79</v>
@@ -5694,42 +5451,46 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>286</v>
+        <v>305</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>286</v>
+        <v>305</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>79</v>
+        <v>306</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H33" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I33" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="I33" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="J33" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>287</v>
+        <v>136</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>288</v>
+        <v>307</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="N33" s="2"/>
-      <c r="O33" s="2"/>
+        <v>308</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="O33" t="s" s="2">
+        <v>145</v>
+      </c>
       <c r="P33" t="s" s="2">
         <v>79</v>
       </c>
@@ -5777,31 +5538,31 @@
         <v>79</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>286</v>
+        <v>309</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>290</v>
+        <v>79</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>291</v>
+        <v>79</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>292</v>
+        <v>133</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>293</v>
+        <v>79</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>79</v>
@@ -5809,10 +5570,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>294</v>
+        <v>310</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>294</v>
+        <v>310</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5832,16 +5593,16 @@
         <v>79</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>183</v>
+        <v>165</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>184</v>
+        <v>311</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>185</v>
+        <v>312</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -5868,13 +5629,13 @@
         <v>79</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>79</v>
+        <v>313</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>79</v>
+        <v>314</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>79</v>
+        <v>315</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>79</v>
@@ -5892,7 +5653,7 @@
         <v>79</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>186</v>
+        <v>310</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>80</v>
@@ -5904,16 +5665,16 @@
         <v>79</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>79</v>
+        <v>102</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>79</v>
+        <v>316</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>187</v>
+        <v>317</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>79</v>
@@ -5924,10 +5685,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>295</v>
+        <v>318</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>295</v>
+        <v>318</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5935,30 +5696,32 @@
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="I35" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>135</v>
+        <v>319</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>296</v>
+        <v>320</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="N35" s="2"/>
+        <v>320</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>321</v>
+      </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>79</v>
@@ -5995,43 +5758,43 @@
         <v>79</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>138</v>
+        <v>79</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>190</v>
+        <v>79</v>
       </c>
       <c r="AD35" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>139</v>
+        <v>79</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>191</v>
+        <v>318</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>79</v>
+        <v>322</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>79</v>
+        <v>323</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>79</v>
+        <v>324</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>79</v>
@@ -6039,14 +5802,12 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>297</v>
+        <v>325</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="C36" t="s" s="2">
-        <v>298</v>
-      </c>
+        <v>325</v>
+      </c>
+      <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
         <v>79</v>
       </c>
@@ -6055,7 +5816,7 @@
         <v>80</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>79</v>
@@ -6064,16 +5825,16 @@
         <v>79</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>299</v>
+        <v>326</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>300</v>
+        <v>327</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>301</v>
+        <v>328</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -6124,7 +5885,7 @@
         <v>79</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>191</v>
+        <v>325</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>80</v>
@@ -6136,16 +5897,16 @@
         <v>79</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>79</v>
+        <v>329</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>79</v>
+        <v>330</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>79</v>
+        <v>331</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>79</v>
@@ -6156,10 +5917,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>302</v>
+        <v>332</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>302</v>
+        <v>332</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6170,7 +5931,7 @@
         <v>80</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>79</v>
@@ -6179,20 +5940,18 @@
         <v>79</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>183</v>
+        <v>165</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>303</v>
+        <v>333</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>305</v>
-      </c>
+        <v>334</v>
+      </c>
+      <c r="N37" s="2"/>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>79</v>
@@ -6217,13 +5976,13 @@
         <v>79</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>79</v>
+        <v>169</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>79</v>
+        <v>335</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>79</v>
+        <v>336</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>79</v>
@@ -6241,28 +6000,28 @@
         <v>79</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>306</v>
+        <v>332</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>307</v>
+        <v>79</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>79</v>
+        <v>337</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>133</v>
+        <v>338</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>79</v>
@@ -6273,10 +6032,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>308</v>
+        <v>339</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>308</v>
+        <v>339</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6287,7 +6046,7 @@
         <v>80</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>79</v>
@@ -6296,20 +6055,18 @@
         <v>79</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>104</v>
+        <v>340</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>309</v>
+        <v>333</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>311</v>
-      </c>
+        <v>341</v>
+      </c>
+      <c r="N38" s="2"/>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>79</v>
@@ -6334,13 +6091,13 @@
         <v>79</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>312</v>
+        <v>79</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>313</v>
+        <v>79</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>314</v>
+        <v>79</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>79</v>
@@ -6358,13 +6115,13 @@
         <v>79</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>315</v>
+        <v>339</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>79</v>
@@ -6373,7 +6130,7 @@
         <v>102</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>79</v>
+        <v>342</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>79</v>
@@ -6390,10 +6147,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>316</v>
+        <v>343</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>316</v>
+        <v>343</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6410,28 +6167,30 @@
         <v>79</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="J39" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>156</v>
+        <v>227</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>317</v>
+        <v>344</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>318</v>
+        <v>345</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>319</v>
+        <v>346</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="Q39" s="2"/>
+      <c r="Q39" t="s" s="2">
+        <v>347</v>
+      </c>
       <c r="R39" t="s" s="2">
         <v>79</v>
       </c>
@@ -6475,7 +6234,7 @@
         <v>79</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>320</v>
+        <v>343</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>80</v>
@@ -6493,10 +6252,10 @@
         <v>79</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>79</v>
+        <v>348</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>321</v>
+        <v>133</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>79</v>
@@ -6507,10 +6266,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>322</v>
+        <v>349</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>322</v>
+        <v>349</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6521,7 +6280,7 @@
         <v>80</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>79</v>
@@ -6530,20 +6289,18 @@
         <v>79</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>183</v>
+        <v>165</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>323</v>
+        <v>350</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>325</v>
-      </c>
+        <v>351</v>
+      </c>
+      <c r="N40" s="2"/>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>79</v>
@@ -6568,13 +6325,13 @@
         <v>79</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>79</v>
+        <v>169</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>79</v>
+        <v>352</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>79</v>
+        <v>353</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>79</v>
@@ -6592,13 +6349,13 @@
         <v>79</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>326</v>
+        <v>349</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>79</v>
@@ -6624,10 +6381,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>327</v>
+        <v>354</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>327</v>
+        <v>354</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6638,7 +6395,7 @@
         <v>80</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>79</v>
@@ -6650,13 +6407,13 @@
         <v>79</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>328</v>
+        <v>291</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>329</v>
+        <v>355</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>330</v>
+        <v>356</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -6707,42 +6464,42 @@
         <v>79</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>327</v>
+        <v>354</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>102</v>
+        <v>357</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>331</v>
+        <v>79</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>332</v>
+        <v>133</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>333</v>
+        <v>79</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>334</v>
+        <v>358</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>334</v>
+        <v>358</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6756,7 +6513,7 @@
         <v>90</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="I42" t="s" s="2">
         <v>79</v>
@@ -6765,13 +6522,13 @@
         <v>79</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>183</v>
+        <v>219</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>335</v>
+        <v>298</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>336</v>
+        <v>299</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -6822,7 +6579,7 @@
         <v>79</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>334</v>
+        <v>300</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>80</v>
@@ -6834,44 +6591,44 @@
         <v>79</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>337</v>
+        <v>79</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>339</v>
+        <v>79</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>340</v>
+        <v>359</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>340</v>
+        <v>359</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="I43" t="s" s="2">
         <v>79</v>
@@ -6880,15 +6637,17 @@
         <v>79</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>341</v>
+        <v>136</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>342</v>
+        <v>137</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="N43" s="2"/>
+        <v>303</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>139</v>
+      </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>79</v>
@@ -6937,28 +6696,28 @@
         <v>79</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>340</v>
+        <v>304</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>344</v>
+        <v>79</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>345</v>
+        <v>301</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>79</v>
@@ -6969,42 +6728,46 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>346</v>
+        <v>360</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>346</v>
+        <v>360</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>79</v>
+        <v>306</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>173</v>
+        <v>136</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>347</v>
+        <v>307</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="N44" s="2"/>
-      <c r="O44" s="2"/>
+        <v>308</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="O44" t="s" s="2">
+        <v>145</v>
+      </c>
       <c r="P44" t="s" s="2">
         <v>79</v>
       </c>
@@ -7028,13 +6791,13 @@
         <v>79</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>177</v>
+        <v>79</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>349</v>
+        <v>79</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>350</v>
+        <v>79</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>79</v>
@@ -7052,42 +6815,42 @@
         <v>79</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>346</v>
+        <v>309</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>351</v>
+        <v>79</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>352</v>
+        <v>133</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO44" t="s" s="2">
-        <v>353</v>
+        <v>79</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7110,13 +6873,13 @@
         <v>79</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>173</v>
+        <v>219</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -7143,13 +6906,13 @@
         <v>79</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>177</v>
+        <v>79</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>357</v>
+        <v>79</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>358</v>
+        <v>79</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>79</v>
@@ -7167,7 +6930,7 @@
         <v>79</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>80</v>
@@ -7185,24 +6948,24 @@
         <v>79</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>360</v>
+        <v>133</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>361</v>
+        <v>79</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7225,13 +6988,13 @@
         <v>79</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>363</v>
+        <v>104</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -7282,7 +7045,7 @@
         <v>79</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>80</v>
@@ -7300,10 +7063,10 @@
         <v>79</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>366</v>
+        <v>79</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>367</v>
+        <v>133</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>79</v>
@@ -7328,25 +7091,25 @@
         <v>80</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="I47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L47" t="s" s="2">
         <v>369</v>
       </c>
-      <c r="L47" t="s" s="2">
+      <c r="M47" t="s" s="2">
         <v>370</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>371</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -7403,7 +7166,7 @@
         <v>80</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>79</v>
@@ -7412,13 +7175,13 @@
         <v>102</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>372</v>
+        <v>79</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>374</v>
+        <v>133</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>79</v>
@@ -7429,10 +7192,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7455,13 +7218,13 @@
         <v>79</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>183</v>
+        <v>214</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>184</v>
+        <v>373</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>185</v>
+        <v>374</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -7512,7 +7275,7 @@
         <v>79</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>186</v>
+        <v>372</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>80</v>
@@ -7524,16 +7287,16 @@
         <v>79</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>79</v>
+        <v>102</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>79</v>
+        <v>375</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>187</v>
+        <v>133</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>79</v>
@@ -7551,7 +7314,7 @@
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>149</v>
+        <v>79</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
@@ -7561,7 +7324,7 @@
         <v>81</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="I49" t="s" s="2">
         <v>79</v>
@@ -7570,17 +7333,15 @@
         <v>79</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>135</v>
+        <v>165</v>
       </c>
       <c r="L49" t="s" s="2">
         <v>377</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>152</v>
-      </c>
+        <v>377</v>
+      </c>
+      <c r="N49" s="2"/>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>79</v>
@@ -7605,13 +7366,11 @@
         <v>79</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y49" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="Y49" s="2"/>
       <c r="Z49" t="s" s="2">
-        <v>79</v>
+        <v>378</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>79</v>
@@ -7629,7 +7388,7 @@
         <v>79</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>191</v>
+        <v>376</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>80</v>
@@ -7641,16 +7400,16 @@
         <v>79</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>79</v>
+        <v>379</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>187</v>
+        <v>133</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>79</v>
@@ -7661,33 +7420,33 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>380</v>
+        <v>79</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>135</v>
+        <v>165</v>
       </c>
       <c r="L50" t="s" s="2">
         <v>381</v>
@@ -7695,12 +7454,8 @@
       <c r="M50" t="s" s="2">
         <v>382</v>
       </c>
-      <c r="N50" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="O50" t="s" s="2">
-        <v>153</v>
-      </c>
+      <c r="N50" s="2"/>
+      <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>79</v>
       </c>
@@ -7724,13 +7479,13 @@
         <v>79</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>79</v>
+        <v>169</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>79</v>
+        <v>383</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>79</v>
+        <v>384</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>79</v>
@@ -7748,19 +7503,19 @@
         <v>79</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>79</v>
@@ -7780,10 +7535,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7794,27 +7549,29 @@
         <v>80</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="I51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>173</v>
+        <v>291</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="N51" s="2"/>
+        <v>387</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>388</v>
+      </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>79</v>
@@ -7839,13 +7596,13 @@
         <v>79</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>312</v>
+        <v>79</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>387</v>
+        <v>79</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>388</v>
+        <v>79</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>79</v>
@@ -7863,13 +7620,13 @@
         <v>79</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>79</v>
@@ -7878,10 +7635,10 @@
         <v>102</v>
       </c>
       <c r="AK51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL51" t="s" s="2">
         <v>389</v>
-      </c>
-      <c r="AL51" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>390</v>
@@ -7906,32 +7663,30 @@
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>90</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="I52" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>392</v>
+        <v>219</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>393</v>
+        <v>298</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>394</v>
-      </c>
+        <v>299</v>
+      </c>
+      <c r="N52" s="2"/>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>79</v>
@@ -7980,10 +7735,10 @@
         <v>79</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>391</v>
+        <v>300</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>90</v>
@@ -7992,19 +7747,19 @@
         <v>79</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>395</v>
+        <v>79</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>396</v>
+        <v>301</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>397</v>
+        <v>79</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>79</v>
@@ -8012,14 +7767,14 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
@@ -8035,18 +7790,20 @@
         <v>79</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>399</v>
+        <v>136</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>400</v>
+        <v>137</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="N53" s="2"/>
+        <v>303</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>139</v>
+      </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>79</v>
@@ -8095,7 +7852,7 @@
         <v>79</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>398</v>
+        <v>304</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>80</v>
@@ -8107,16 +7864,16 @@
         <v>79</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>402</v>
+        <v>79</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>403</v>
+        <v>79</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>404</v>
+        <v>301</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>79</v>
@@ -8127,14 +7884,14 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>79</v>
+        <v>306</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
@@ -8147,22 +7904,26 @@
         <v>79</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>173</v>
+        <v>136</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>406</v>
+        <v>307</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="N54" s="2"/>
-      <c r="O54" s="2"/>
+        <v>308</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="O54" t="s" s="2">
+        <v>145</v>
+      </c>
       <c r="P54" t="s" s="2">
         <v>79</v>
       </c>
@@ -8186,13 +7947,13 @@
         <v>79</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>177</v>
+        <v>79</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>408</v>
+        <v>79</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>409</v>
+        <v>79</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>79</v>
@@ -8210,7 +7971,7 @@
         <v>79</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>405</v>
+        <v>309</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>80</v>
@@ -8222,16 +7983,16 @@
         <v>79</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>410</v>
+        <v>79</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>411</v>
+        <v>133</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>79</v>
@@ -8242,10 +8003,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>412</v>
+        <v>394</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>412</v>
+        <v>394</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8256,7 +8017,7 @@
         <v>80</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>79</v>
@@ -8268,13 +8029,13 @@
         <v>79</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>413</v>
+        <v>214</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>406</v>
+        <v>395</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>414</v>
+        <v>396</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -8325,13 +8086,13 @@
         <v>79</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>412</v>
+        <v>394</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>79</v>
@@ -8340,13 +8101,13 @@
         <v>102</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>415</v>
+        <v>79</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>79</v>
+        <v>397</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>133</v>
+        <v>209</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>79</v>
@@ -8357,10 +8118,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>416</v>
+        <v>398</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>416</v>
+        <v>398</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8377,30 +8138,26 @@
         <v>79</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>272</v>
+        <v>399</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>417</v>
+        <v>400</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>419</v>
-      </c>
+        <v>401</v>
+      </c>
+      <c r="N56" s="2"/>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="Q56" t="s" s="2">
-        <v>420</v>
-      </c>
+      <c r="Q56" s="2"/>
       <c r="R56" t="s" s="2">
         <v>79</v>
       </c>
@@ -8444,7 +8201,7 @@
         <v>79</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>416</v>
+        <v>398</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>80</v>
@@ -8462,10 +8219,10 @@
         <v>79</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>421</v>
+        <v>402</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>133</v>
+        <v>403</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>79</v>
@@ -8476,10 +8233,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>422</v>
+        <v>404</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>422</v>
+        <v>404</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8490,7 +8247,7 @@
         <v>80</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>79</v>
@@ -8502,13 +8259,13 @@
         <v>79</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>173</v>
+        <v>227</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>423</v>
+        <v>405</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>424</v>
+        <v>406</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -8535,13 +8292,13 @@
         <v>79</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>177</v>
+        <v>79</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>425</v>
+        <v>79</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>426</v>
+        <v>79</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>79</v>
@@ -8559,13 +8316,13 @@
         <v>79</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>422</v>
+        <v>404</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>79</v>
@@ -8577,10 +8334,10 @@
         <v>79</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>79</v>
+        <v>407</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>133</v>
+        <v>408</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>79</v>
@@ -8591,10 +8348,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>427</v>
+        <v>409</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>427</v>
+        <v>409</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8608,7 +8365,7 @@
         <v>81</v>
       </c>
       <c r="H58" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="I58" t="s" s="2">
         <v>79</v>
@@ -8617,13 +8374,13 @@
         <v>79</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>369</v>
+        <v>291</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>428</v>
+        <v>410</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>429</v>
+        <v>411</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -8674,7 +8431,7 @@
         <v>79</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>427</v>
+        <v>409</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>80</v>
@@ -8686,7 +8443,7 @@
         <v>79</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>430</v>
+        <v>102</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>79</v>
@@ -8706,10 +8463,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>431</v>
+        <v>412</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>431</v>
+        <v>412</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8732,13 +8489,13 @@
         <v>79</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>183</v>
+        <v>219</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>184</v>
+        <v>298</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>185</v>
+        <v>299</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -8789,7 +8546,7 @@
         <v>79</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>186</v>
+        <v>300</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>80</v>
@@ -8810,7 +8567,7 @@
         <v>79</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>187</v>
+        <v>301</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>79</v>
@@ -8821,14 +8578,14 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>432</v>
+        <v>413</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>432</v>
+        <v>413</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
@@ -8847,16 +8604,16 @@
         <v>79</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>377</v>
+        <v>137</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>378</v>
+        <v>303</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
@@ -8906,7 +8663,7 @@
         <v>79</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>191</v>
+        <v>304</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>80</v>
@@ -8927,7 +8684,7 @@
         <v>79</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>187</v>
+        <v>301</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>79</v>
@@ -8938,14 +8695,14 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>433</v>
+        <v>414</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>433</v>
+        <v>414</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>380</v>
+        <v>306</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
@@ -8964,19 +8721,19 @@
         <v>91</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>381</v>
+        <v>307</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>382</v>
+        <v>308</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="O61" t="s" s="2">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>79</v>
@@ -9025,7 +8782,7 @@
         <v>79</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>383</v>
+        <v>309</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>80</v>
@@ -9057,10 +8814,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>434</v>
+        <v>415</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>434</v>
+        <v>415</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9083,13 +8840,13 @@
         <v>79</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>183</v>
+        <v>219</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>435</v>
+        <v>416</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>436</v>
+        <v>417</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -9140,7 +8897,7 @@
         <v>79</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>434</v>
+        <v>415</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>80</v>
@@ -9158,7 +8915,7 @@
         <v>79</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>437</v>
+        <v>79</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>133</v>
@@ -9172,10 +8929,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>438</v>
+        <v>418</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>438</v>
+        <v>418</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9198,13 +8955,13 @@
         <v>79</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>104</v>
+        <v>250</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>439</v>
+        <v>419</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>440</v>
+        <v>420</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -9255,7 +9012,7 @@
         <v>79</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>438</v>
+        <v>418</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>80</v>
@@ -9287,10 +9044,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>441</v>
+        <v>421</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>441</v>
+        <v>421</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9301,7 +9058,7 @@
         <v>80</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>79</v>
@@ -9313,13 +9070,13 @@
         <v>79</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>263</v>
+        <v>165</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>442</v>
+        <v>422</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>443</v>
+        <v>423</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -9346,13 +9103,13 @@
         <v>79</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>79</v>
+        <v>169</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>79</v>
+        <v>424</v>
       </c>
       <c r="Z64" t="s" s="2">
-        <v>79</v>
+        <v>425</v>
       </c>
       <c r="AA64" t="s" s="2">
         <v>79</v>
@@ -9370,13 +9127,13 @@
         <v>79</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>441</v>
+        <v>421</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>79</v>
@@ -9388,7 +9145,7 @@
         <v>79</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>444</v>
+        <v>79</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>133</v>
@@ -9402,10 +9159,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>445</v>
+        <v>426</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>445</v>
+        <v>426</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9413,7 +9170,7 @@
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>90</v>
@@ -9428,15 +9185,17 @@
         <v>79</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>263</v>
+        <v>427</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>446</v>
+        <v>428</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="N65" s="2"/>
+        <v>429</v>
+      </c>
+      <c r="N65" t="s" s="2">
+        <v>430</v>
+      </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
         <v>79</v>
@@ -9485,10 +9244,10 @@
         <v>79</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>445</v>
+        <v>426</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>90</v>
@@ -9503,7 +9262,7 @@
         <v>79</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>448</v>
+        <v>79</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>133</v>
@@ -9517,10 +9276,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>449</v>
+        <v>431</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>449</v>
+        <v>431</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9531,10 +9290,10 @@
         <v>80</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H66" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="I66" t="s" s="2">
         <v>79</v>
@@ -9543,15 +9302,17 @@
         <v>79</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>173</v>
+        <v>427</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>450</v>
+        <v>432</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="N66" s="2"/>
+        <v>433</v>
+      </c>
+      <c r="N66" t="s" s="2">
+        <v>430</v>
+      </c>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
         <v>79</v>
@@ -9576,11 +9337,13 @@
         <v>79</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="Y66" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="Y66" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="Z66" t="s" s="2">
-        <v>451</v>
+        <v>79</v>
       </c>
       <c r="AA66" t="s" s="2">
         <v>79</v>
@@ -9598,13 +9361,13 @@
         <v>79</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>449</v>
+        <v>431</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>79</v>
@@ -9616,7 +9379,7 @@
         <v>79</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>452</v>
+        <v>79</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>133</v>
@@ -9628,1981 +9391,8 @@
         <v>79</v>
       </c>
     </row>
-    <row r="67" hidden="true">
-      <c r="A67" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="B67" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="C67" s="2"/>
-      <c r="D67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="E67" s="2"/>
-      <c r="F67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G67" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="K67" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="L67" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="N67" s="2"/>
-      <c r="O67" s="2"/>
-      <c r="P67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q67" s="2"/>
-      <c r="R67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X67" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="Y67" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="Z67" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="AA67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF67" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="AG67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH67" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AI67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ67" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM67" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="AN67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO67" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="68" hidden="true">
-      <c r="A68" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="B68" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="C68" s="2"/>
-      <c r="D68" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="E68" s="2"/>
-      <c r="F68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G68" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H68" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="I68" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J68" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="K68" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="L68" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="O68" s="2"/>
-      <c r="P68" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q68" s="2"/>
-      <c r="R68" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S68" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T68" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U68" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V68" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W68" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X68" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y68" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z68" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA68" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB68" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC68" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD68" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE68" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF68" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="AG68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH68" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI68" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ68" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK68" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL68" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="AM68" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="AN68" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO68" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="69" hidden="true">
-      <c r="A69" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="B69" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="C69" s="2"/>
-      <c r="D69" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="E69" s="2"/>
-      <c r="F69" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G69" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H69" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I69" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J69" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="K69" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="L69" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="N69" s="2"/>
-      <c r="O69" s="2"/>
-      <c r="P69" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q69" s="2"/>
-      <c r="R69" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S69" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T69" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U69" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V69" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W69" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X69" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y69" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z69" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA69" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB69" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC69" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD69" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE69" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF69" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="AG69" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH69" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AI69" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ69" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK69" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL69" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM69" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="AN69" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO69" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="70" hidden="true">
-      <c r="A70" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="B70" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="C70" s="2"/>
-      <c r="D70" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="E70" s="2"/>
-      <c r="F70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G70" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H70" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I70" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J70" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="K70" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="L70" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="O70" s="2"/>
-      <c r="P70" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q70" s="2"/>
-      <c r="R70" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S70" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T70" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U70" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V70" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W70" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X70" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y70" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z70" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA70" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB70" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC70" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD70" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE70" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF70" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="AG70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH70" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI70" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ70" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="AK70" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL70" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM70" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="AN70" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO70" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="71" hidden="true">
-      <c r="A71" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="B71" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="C71" s="2"/>
-      <c r="D71" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="E71" s="2"/>
-      <c r="F71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G71" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I71" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="J71" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="K71" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="L71" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="O71" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="P71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q71" s="2"/>
-      <c r="R71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF71" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="AG71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH71" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ71" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="AK71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM71" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="AN71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO71" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="72" hidden="true">
-      <c r="A72" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="B72" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="C72" s="2"/>
-      <c r="D72" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="E72" s="2"/>
-      <c r="F72" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G72" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H72" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I72" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J72" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="K72" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="L72" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="M72" t="s" s="2">
-        <v>469</v>
-      </c>
-      <c r="N72" s="2"/>
-      <c r="O72" s="2"/>
-      <c r="P72" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q72" s="2"/>
-      <c r="R72" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S72" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T72" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U72" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V72" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W72" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X72" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y72" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z72" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA72" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB72" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC72" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD72" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE72" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF72" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="AG72" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH72" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AI72" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ72" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK72" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL72" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="AM72" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="AN72" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO72" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="73" hidden="true">
-      <c r="A73" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="B73" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="C73" s="2"/>
-      <c r="D73" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="E73" s="2"/>
-      <c r="F73" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G73" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H73" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I73" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J73" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="K73" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="L73" t="s" s="2">
-        <v>473</v>
-      </c>
-      <c r="M73" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="N73" s="2"/>
-      <c r="O73" s="2"/>
-      <c r="P73" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q73" s="2"/>
-      <c r="R73" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S73" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T73" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U73" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V73" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W73" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X73" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y73" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z73" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA73" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB73" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC73" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD73" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE73" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF73" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="AG73" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH73" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AI73" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ73" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK73" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL73" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="AM73" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="AN73" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO73" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="74" hidden="true">
-      <c r="A74" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="B74" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="C74" s="2"/>
-      <c r="D74" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="E74" s="2"/>
-      <c r="F74" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G74" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H74" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I74" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J74" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="K74" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="L74" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="N74" s="2"/>
-      <c r="O74" s="2"/>
-      <c r="P74" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q74" s="2"/>
-      <c r="R74" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S74" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T74" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U74" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V74" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W74" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X74" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y74" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z74" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA74" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB74" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC74" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD74" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE74" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF74" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="AG74" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH74" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AI74" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ74" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK74" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL74" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="AM74" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="AN74" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO74" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="75" hidden="true">
-      <c r="A75" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="B75" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="C75" s="2"/>
-      <c r="D75" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="E75" s="2"/>
-      <c r="F75" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G75" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H75" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="I75" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J75" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="K75" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="L75" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="M75" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="N75" s="2"/>
-      <c r="O75" s="2"/>
-      <c r="P75" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q75" s="2"/>
-      <c r="R75" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S75" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T75" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U75" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V75" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W75" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X75" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y75" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z75" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA75" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB75" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC75" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD75" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE75" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF75" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="AG75" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH75" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI75" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ75" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK75" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL75" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM75" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="AN75" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO75" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="76" hidden="true">
-      <c r="A76" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="B76" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="C76" s="2"/>
-      <c r="D76" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="E76" s="2"/>
-      <c r="F76" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G76" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H76" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I76" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J76" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="K76" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="L76" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="M76" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="N76" s="2"/>
-      <c r="O76" s="2"/>
-      <c r="P76" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q76" s="2"/>
-      <c r="R76" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S76" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T76" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U76" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V76" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W76" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X76" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y76" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z76" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA76" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB76" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC76" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD76" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE76" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF76" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="AG76" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH76" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AI76" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ76" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK76" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL76" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM76" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="AN76" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO76" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="77" hidden="true">
-      <c r="A77" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="B77" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="C77" s="2"/>
-      <c r="D77" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="E77" s="2"/>
-      <c r="F77" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G77" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H77" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I77" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J77" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="K77" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="L77" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="M77" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="N77" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="O77" s="2"/>
-      <c r="P77" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q77" s="2"/>
-      <c r="R77" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S77" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T77" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U77" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V77" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W77" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X77" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y77" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z77" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA77" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB77" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC77" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD77" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE77" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF77" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="AG77" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH77" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI77" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ77" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="AK77" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL77" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM77" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="AN77" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO77" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="78" hidden="true">
-      <c r="A78" t="s" s="2">
-        <v>487</v>
-      </c>
-      <c r="B78" t="s" s="2">
-        <v>487</v>
-      </c>
-      <c r="C78" s="2"/>
-      <c r="D78" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="E78" s="2"/>
-      <c r="F78" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G78" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H78" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I78" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="J78" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="K78" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="L78" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="M78" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="N78" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="O78" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="P78" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q78" s="2"/>
-      <c r="R78" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S78" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T78" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U78" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V78" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W78" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X78" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y78" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z78" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA78" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB78" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC78" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD78" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE78" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF78" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="AG78" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH78" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI78" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ78" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="AK78" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL78" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM78" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="AN78" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO78" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="79" hidden="true">
-      <c r="A79" t="s" s="2">
-        <v>488</v>
-      </c>
-      <c r="B79" t="s" s="2">
-        <v>488</v>
-      </c>
-      <c r="C79" s="2"/>
-      <c r="D79" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="E79" s="2"/>
-      <c r="F79" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G79" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H79" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I79" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J79" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="K79" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="L79" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="M79" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="N79" s="2"/>
-      <c r="O79" s="2"/>
-      <c r="P79" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q79" s="2"/>
-      <c r="R79" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S79" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T79" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U79" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V79" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W79" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X79" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y79" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z79" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA79" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB79" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC79" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD79" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE79" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF79" t="s" s="2">
-        <v>488</v>
-      </c>
-      <c r="AG79" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH79" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AI79" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ79" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK79" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL79" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM79" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="AN79" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO79" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="80" hidden="true">
-      <c r="A80" t="s" s="2">
-        <v>491</v>
-      </c>
-      <c r="B80" t="s" s="2">
-        <v>491</v>
-      </c>
-      <c r="C80" s="2"/>
-      <c r="D80" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="E80" s="2"/>
-      <c r="F80" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G80" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H80" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I80" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J80" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="K80" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="L80" t="s" s="2">
-        <v>492</v>
-      </c>
-      <c r="M80" t="s" s="2">
-        <v>493</v>
-      </c>
-      <c r="N80" s="2"/>
-      <c r="O80" s="2"/>
-      <c r="P80" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q80" s="2"/>
-      <c r="R80" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S80" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T80" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U80" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V80" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W80" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X80" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y80" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z80" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA80" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB80" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC80" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD80" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE80" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF80" t="s" s="2">
-        <v>491</v>
-      </c>
-      <c r="AG80" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH80" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AI80" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ80" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK80" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL80" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM80" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="AN80" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO80" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="81" hidden="true">
-      <c r="A81" t="s" s="2">
-        <v>494</v>
-      </c>
-      <c r="B81" t="s" s="2">
-        <v>494</v>
-      </c>
-      <c r="C81" s="2"/>
-      <c r="D81" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="E81" s="2"/>
-      <c r="F81" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G81" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H81" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I81" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J81" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="K81" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="L81" t="s" s="2">
-        <v>495</v>
-      </c>
-      <c r="M81" t="s" s="2">
-        <v>496</v>
-      </c>
-      <c r="N81" s="2"/>
-      <c r="O81" s="2"/>
-      <c r="P81" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q81" s="2"/>
-      <c r="R81" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S81" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T81" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U81" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V81" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W81" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X81" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="Y81" t="s" s="2">
-        <v>497</v>
-      </c>
-      <c r="Z81" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="AA81" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB81" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC81" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD81" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE81" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF81" t="s" s="2">
-        <v>494</v>
-      </c>
-      <c r="AG81" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH81" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI81" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ81" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK81" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL81" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM81" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="AN81" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO81" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="82" hidden="true">
-      <c r="A82" t="s" s="2">
-        <v>499</v>
-      </c>
-      <c r="B82" t="s" s="2">
-        <v>499</v>
-      </c>
-      <c r="C82" s="2"/>
-      <c r="D82" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="E82" s="2"/>
-      <c r="F82" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="G82" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H82" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I82" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J82" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="K82" t="s" s="2">
-        <v>500</v>
-      </c>
-      <c r="L82" t="s" s="2">
-        <v>501</v>
-      </c>
-      <c r="M82" t="s" s="2">
-        <v>502</v>
-      </c>
-      <c r="N82" t="s" s="2">
-        <v>503</v>
-      </c>
-      <c r="O82" s="2"/>
-      <c r="P82" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q82" s="2"/>
-      <c r="R82" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S82" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T82" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U82" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V82" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W82" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X82" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y82" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z82" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA82" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB82" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC82" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD82" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE82" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF82" t="s" s="2">
-        <v>499</v>
-      </c>
-      <c r="AG82" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AH82" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AI82" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ82" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK82" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL82" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM82" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="AN82" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO82" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="83" hidden="true">
-      <c r="A83" t="s" s="2">
-        <v>504</v>
-      </c>
-      <c r="B83" t="s" s="2">
-        <v>504</v>
-      </c>
-      <c r="C83" s="2"/>
-      <c r="D83" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="E83" s="2"/>
-      <c r="F83" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G83" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H83" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I83" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J83" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="K83" t="s" s="2">
-        <v>500</v>
-      </c>
-      <c r="L83" t="s" s="2">
-        <v>505</v>
-      </c>
-      <c r="M83" t="s" s="2">
-        <v>506</v>
-      </c>
-      <c r="N83" t="s" s="2">
-        <v>503</v>
-      </c>
-      <c r="O83" s="2"/>
-      <c r="P83" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q83" s="2"/>
-      <c r="R83" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S83" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T83" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U83" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V83" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W83" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X83" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y83" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z83" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA83" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB83" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC83" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD83" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE83" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF83" t="s" s="2">
-        <v>504</v>
-      </c>
-      <c r="AG83" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH83" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AI83" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ83" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK83" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL83" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM83" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="AN83" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO83" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:AO83">
+  <autoFilter ref="A1:AO66">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -11612,7 +9402,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI82">
+  <conditionalFormatting sqref="A2:AI65">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/output/StructureDefinition-ImmunizationCL.xlsx
+++ b/output/StructureDefinition-ImmunizationCL.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.8.11</t>
+    <t>1.8.12</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-17T14:21:27-04:00</t>
+    <t>2024-06-21T18:30:18-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-ImmunizationCL.xlsx
+++ b/output/StructureDefinition-ImmunizationCL.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-21T18:30:18-04:00</t>
+    <t>2024-06-23T21:41:08-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-ImmunizationCL.xlsx
+++ b/output/StructureDefinition-ImmunizationCL.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-23T21:41:08-04:00</t>
+    <t>2024-06-24T20:56:59-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-ImmunizationCL.xlsx
+++ b/output/StructureDefinition-ImmunizationCL.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2451" uniqueCount="434">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2450" uniqueCount="433">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-24T20:56:59-04:00</t>
+    <t>2024-06-25T09:03:09-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -566,10 +566,7 @@
     <t>Vacuna que se administró o se iba a administrar. Se proporciona valores que utilizan en el RNI (Registro Nacional de Inmunizaciones)</t>
   </si>
   <si>
-    <t>The code for vaccine product administered.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/vaccine-code</t>
+    <t>https://hl7chile.cl/fhir/ig/clcore/ValueSet/VSTiposVacunas</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -1187,7 +1184,7 @@
     <t>Indica la elegibilidad de un paciente para un programa de financiamiento</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/immunization-program-eligibility</t>
+    <t>https://hl7chile.cl/fhir/ig/clcore/ValueSet/VSNombreCampana</t>
   </si>
   <si>
     <t>OBX-5 : OBX-3 = 64994-7</t>
@@ -1710,7 +1707,7 @@
     <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.3125" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="64.734375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="56.36328125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="57.12109375" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="17.8203125" customWidth="true" bestFit="true"/>
@@ -3313,11 +3310,9 @@
       <c r="X14" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="Y14" t="s" s="2">
+      <c r="Y14" s="2"/>
+      <c r="Z14" t="s" s="2">
         <v>177</v>
-      </c>
-      <c r="Z14" t="s" s="2">
-        <v>178</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>79</v>
@@ -3350,27 +3345,27 @@
         <v>102</v>
       </c>
       <c r="AK14" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="AL14" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="AL14" t="s" s="2">
+      <c r="AM14" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="AM14" t="s" s="2">
+      <c r="AN14" t="s" s="2">
         <v>181</v>
       </c>
-      <c r="AN14" t="s" s="2">
+      <c r="AO14" t="s" s="2">
         <v>182</v>
-      </c>
-      <c r="AO14" t="s" s="2">
-        <v>183</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3393,13 +3388,13 @@
         <v>91</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="L15" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="M15" t="s" s="2">
         <v>186</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>187</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -3450,7 +3445,7 @@
         <v>79</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>90</v>
@@ -3465,16 +3460,16 @@
         <v>102</v>
       </c>
       <c r="AK15" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="AL15" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="AL15" t="s" s="2">
+      <c r="AM15" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="AM15" t="s" s="2">
+      <c r="AN15" t="s" s="2">
         <v>190</v>
-      </c>
-      <c r="AN15" t="s" s="2">
-        <v>191</v>
       </c>
       <c r="AO15" t="s" s="2">
         <v>79</v>
@@ -3482,10 +3477,10 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3508,13 +3503,13 @@
         <v>79</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="L16" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="M16" t="s" s="2">
         <v>194</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>195</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -3565,7 +3560,7 @@
         <v>79</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>80</v>
@@ -3580,16 +3575,16 @@
         <v>102</v>
       </c>
       <c r="AK16" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="AL16" t="s" s="2">
         <v>196</v>
       </c>
-      <c r="AL16" t="s" s="2">
+      <c r="AM16" t="s" s="2">
         <v>197</v>
       </c>
-      <c r="AM16" t="s" s="2">
+      <c r="AN16" t="s" s="2">
         <v>198</v>
-      </c>
-      <c r="AN16" t="s" s="2">
-        <v>199</v>
       </c>
       <c r="AO16" t="s" s="2">
         <v>79</v>
@@ -3597,10 +3592,10 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3623,16 +3618,16 @@
         <v>91</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="M17" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="M17" t="s" s="2">
+      <c r="N17" t="s" s="2">
         <v>203</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>204</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -3670,17 +3665,17 @@
         <v>79</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AC17" s="2"/>
       <c r="AD17" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>90</v>
@@ -3695,30 +3690,30 @@
         <v>102</v>
       </c>
       <c r="AK17" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="AL17" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="AL17" t="s" s="2">
+      <c r="AM17" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="AM17" t="s" s="2">
+      <c r="AN17" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="AN17" t="s" s="2">
+      <c r="AO17" t="s" s="2">
         <v>210</v>
-      </c>
-      <c r="AO17" t="s" s="2">
-        <v>211</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="B18" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="C18" t="s" s="2">
         <v>212</v>
-      </c>
-      <c r="B18" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="C18" t="s" s="2">
-        <v>213</v>
       </c>
       <c r="D18" t="s" s="2">
         <v>79</v>
@@ -3740,16 +3735,16 @@
         <v>91</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="M18" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="M18" t="s" s="2">
-        <v>216</v>
-      </c>
       <c r="N18" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -3799,7 +3794,7 @@
         <v>79</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>90</v>
@@ -3814,30 +3809,30 @@
         <v>102</v>
       </c>
       <c r="AK18" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="AL18" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="AL18" t="s" s="2">
+      <c r="AM18" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="AM18" t="s" s="2">
+      <c r="AN18" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="AN18" t="s" s="2">
+      <c r="AO18" t="s" s="2">
         <v>210</v>
-      </c>
-      <c r="AO18" t="s" s="2">
-        <v>211</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="B19" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="C19" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="B19" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="C19" t="s" s="2">
-        <v>218</v>
       </c>
       <c r="D19" t="s" s="2">
         <v>79</v>
@@ -3859,16 +3854,16 @@
         <v>91</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="L19" t="s" s="2">
-        <v>220</v>
-      </c>
       <c r="M19" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -3918,7 +3913,7 @@
         <v>79</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>90</v>
@@ -3933,27 +3928,27 @@
         <v>102</v>
       </c>
       <c r="AK19" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="AL19" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="AL19" t="s" s="2">
+      <c r="AM19" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="AM19" t="s" s="2">
+      <c r="AN19" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="AN19" t="s" s="2">
+      <c r="AO19" t="s" s="2">
         <v>210</v>
-      </c>
-      <c r="AO19" t="s" s="2">
-        <v>211</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3976,13 +3971,13 @@
         <v>79</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="L20" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="M20" t="s" s="2">
         <v>222</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>223</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -4033,7 +4028,7 @@
         <v>79</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>80</v>
@@ -4054,10 +4049,10 @@
         <v>79</v>
       </c>
       <c r="AM20" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="AN20" t="s" s="2">
         <v>224</v>
-      </c>
-      <c r="AN20" t="s" s="2">
-        <v>225</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>79</v>
@@ -4065,10 +4060,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4091,16 +4086,16 @@
         <v>91</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="M21" t="s" s="2">
+      <c r="N21" t="s" s="2">
         <v>229</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>230</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -4150,7 +4145,7 @@
         <v>79</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>80</v>
@@ -4168,13 +4163,13 @@
         <v>79</v>
       </c>
       <c r="AL21" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="AM21" t="s" s="2">
         <v>231</v>
       </c>
-      <c r="AM21" t="s" s="2">
+      <c r="AN21" t="s" s="2">
         <v>232</v>
-      </c>
-      <c r="AN21" t="s" s="2">
-        <v>233</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>79</v>
@@ -4182,10 +4177,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4211,13 +4206,13 @@
         <v>165</v>
       </c>
       <c r="L22" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="M22" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="M22" t="s" s="2">
+      <c r="N22" t="s" s="2">
         <v>236</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>237</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -4246,11 +4241,11 @@
         <v>169</v>
       </c>
       <c r="Y22" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="Z22" t="s" s="2">
         <v>238</v>
       </c>
-      <c r="Z22" t="s" s="2">
-        <v>239</v>
-      </c>
       <c r="AA22" t="s" s="2">
         <v>79</v>
       </c>
@@ -4267,7 +4262,7 @@
         <v>79</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>80</v>
@@ -4285,13 +4280,13 @@
         <v>79</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>79</v>
@@ -4299,10 +4294,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4325,13 +4320,13 @@
         <v>79</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>242</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>243</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>244</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -4382,7 +4377,7 @@
         <v>79</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>80</v>
@@ -4397,16 +4392,16 @@
         <v>102</v>
       </c>
       <c r="AK23" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="AL23" t="s" s="2">
         <v>245</v>
       </c>
-      <c r="AL23" t="s" s="2">
+      <c r="AM23" t="s" s="2">
         <v>246</v>
       </c>
-      <c r="AM23" t="s" s="2">
+      <c r="AN23" t="s" s="2">
         <v>247</v>
-      </c>
-      <c r="AN23" t="s" s="2">
-        <v>248</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>79</v>
@@ -4414,10 +4409,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4440,13 +4435,13 @@
         <v>79</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="L24" t="s" s="2">
         <v>250</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="M24" t="s" s="2">
         <v>251</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>252</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -4497,7 +4492,7 @@
         <v>79</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>80</v>
@@ -4515,24 +4510,24 @@
         <v>79</v>
       </c>
       <c r="AL24" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="AM24" t="s" s="2">
         <v>253</v>
       </c>
-      <c r="AM24" t="s" s="2">
+      <c r="AN24" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO24" t="s" s="2">
         <v>254</v>
-      </c>
-      <c r="AN24" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO24" t="s" s="2">
-        <v>255</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4555,13 +4550,13 @@
         <v>79</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="L25" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="M25" t="s" s="2">
         <v>257</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>258</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -4612,7 +4607,7 @@
         <v>79</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>80</v>
@@ -4630,24 +4625,24 @@
         <v>79</v>
       </c>
       <c r="AL25" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="AM25" t="s" s="2">
         <v>259</v>
       </c>
-      <c r="AM25" t="s" s="2">
+      <c r="AN25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO25" t="s" s="2">
         <v>260</v>
-      </c>
-      <c r="AN25" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO25" t="s" s="2">
-        <v>261</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4670,13 +4665,13 @@
         <v>79</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>263</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>264</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>265</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -4727,7 +4722,7 @@
         <v>79</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>80</v>
@@ -4745,10 +4740,10 @@
         <v>79</v>
       </c>
       <c r="AL26" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="AM26" t="s" s="2">
         <v>266</v>
-      </c>
-      <c r="AM26" t="s" s="2">
-        <v>267</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>79</v>
@@ -4759,10 +4754,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4788,10 +4783,10 @@
         <v>165</v>
       </c>
       <c r="L27" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="M27" t="s" s="2">
         <v>269</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>270</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -4821,11 +4816,11 @@
         <v>169</v>
       </c>
       <c r="Y27" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="Z27" t="s" s="2">
         <v>271</v>
       </c>
-      <c r="Z27" t="s" s="2">
-        <v>272</v>
-      </c>
       <c r="AA27" t="s" s="2">
         <v>79</v>
       </c>
@@ -4842,7 +4837,7 @@
         <v>79</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>80</v>
@@ -4860,24 +4855,24 @@
         <v>79</v>
       </c>
       <c r="AL27" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="AM27" t="s" s="2">
         <v>273</v>
       </c>
-      <c r="AM27" t="s" s="2">
+      <c r="AN27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO27" t="s" s="2">
         <v>274</v>
-      </c>
-      <c r="AN27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO27" t="s" s="2">
-        <v>275</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4903,10 +4898,10 @@
         <v>165</v>
       </c>
       <c r="L28" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="M28" t="s" s="2">
         <v>277</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>278</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -4936,11 +4931,11 @@
         <v>169</v>
       </c>
       <c r="Y28" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="Z28" t="s" s="2">
         <v>279</v>
       </c>
-      <c r="Z28" t="s" s="2">
-        <v>280</v>
-      </c>
       <c r="AA28" t="s" s="2">
         <v>79</v>
       </c>
@@ -4957,7 +4952,7 @@
         <v>79</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>80</v>
@@ -4975,24 +4970,24 @@
         <v>79</v>
       </c>
       <c r="AL28" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="AM28" t="s" s="2">
         <v>281</v>
       </c>
-      <c r="AM28" t="s" s="2">
+      <c r="AN28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO28" t="s" s="2">
         <v>282</v>
-      </c>
-      <c r="AN28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO28" t="s" s="2">
-        <v>283</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5015,13 +5010,13 @@
         <v>79</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="M29" t="s" s="2">
         <v>286</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>287</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -5072,7 +5067,7 @@
         <v>79</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>80</v>
@@ -5090,10 +5085,10 @@
         <v>79</v>
       </c>
       <c r="AL29" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="AM29" t="s" s="2">
         <v>288</v>
-      </c>
-      <c r="AM29" t="s" s="2">
-        <v>289</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>79</v>
@@ -5104,10 +5099,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5130,13 +5125,13 @@
         <v>91</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>291</v>
       </c>
-      <c r="L30" t="s" s="2">
+      <c r="M30" t="s" s="2">
         <v>292</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>293</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -5187,7 +5182,7 @@
         <v>79</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>80</v>
@@ -5202,13 +5197,13 @@
         <v>102</v>
       </c>
       <c r="AK30" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="AL30" t="s" s="2">
         <v>294</v>
       </c>
-      <c r="AL30" t="s" s="2">
+      <c r="AM30" t="s" s="2">
         <v>295</v>
-      </c>
-      <c r="AM30" t="s" s="2">
-        <v>296</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>79</v>
@@ -5219,10 +5214,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5245,13 +5240,13 @@
         <v>79</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="L31" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="M31" t="s" s="2">
         <v>298</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>299</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -5302,28 +5297,28 @@
         <v>79</v>
       </c>
       <c r="AF31" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="AG31" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH31" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM31" t="s" s="2">
         <v>300</v>
-      </c>
-      <c r="AG31" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH31" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AI31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM31" t="s" s="2">
-        <v>301</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>79</v>
@@ -5334,10 +5329,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5366,7 +5361,7 @@
         <v>137</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="N32" t="s" s="2">
         <v>139</v>
@@ -5419,7 +5414,7 @@
         <v>79</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>80</v>
@@ -5440,7 +5435,7 @@
         <v>79</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>79</v>
@@ -5451,14 +5446,14 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
@@ -5480,10 +5475,10 @@
         <v>136</v>
       </c>
       <c r="L33" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="M33" t="s" s="2">
         <v>307</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>308</v>
       </c>
       <c r="N33" t="s" s="2">
         <v>139</v>
@@ -5538,7 +5533,7 @@
         <v>79</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>80</v>
@@ -5570,10 +5565,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5599,10 +5594,10 @@
         <v>165</v>
       </c>
       <c r="L34" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="M34" t="s" s="2">
         <v>311</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>312</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -5629,14 +5624,14 @@
         <v>79</v>
       </c>
       <c r="X34" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="Y34" t="s" s="2">
         <v>313</v>
       </c>
-      <c r="Y34" t="s" s="2">
+      <c r="Z34" t="s" s="2">
         <v>314</v>
       </c>
-      <c r="Z34" t="s" s="2">
-        <v>315</v>
-      </c>
       <c r="AA34" t="s" s="2">
         <v>79</v>
       </c>
@@ -5653,7 +5648,7 @@
         <v>79</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>80</v>
@@ -5668,13 +5663,13 @@
         <v>102</v>
       </c>
       <c r="AK34" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="AL34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM34" t="s" s="2">
         <v>316</v>
-      </c>
-      <c r="AL34" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM34" t="s" s="2">
-        <v>317</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>79</v>
@@ -5685,10 +5680,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5711,16 +5706,16 @@
         <v>91</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>319</v>
       </c>
-      <c r="L35" t="s" s="2">
+      <c r="M35" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="N35" t="s" s="2">
         <v>320</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>321</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -5770,7 +5765,7 @@
         <v>79</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>90</v>
@@ -5785,16 +5780,16 @@
         <v>102</v>
       </c>
       <c r="AK35" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="AL35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM35" t="s" s="2">
         <v>322</v>
       </c>
-      <c r="AL35" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM35" t="s" s="2">
+      <c r="AN35" t="s" s="2">
         <v>323</v>
-      </c>
-      <c r="AN35" t="s" s="2">
-        <v>324</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>79</v>
@@ -5802,10 +5797,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5828,13 +5823,13 @@
         <v>91</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>326</v>
       </c>
-      <c r="L36" t="s" s="2">
+      <c r="M36" t="s" s="2">
         <v>327</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>328</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -5885,7 +5880,7 @@
         <v>79</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>80</v>
@@ -5900,13 +5895,13 @@
         <v>102</v>
       </c>
       <c r="AK36" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="AL36" t="s" s="2">
         <v>329</v>
       </c>
-      <c r="AL36" t="s" s="2">
+      <c r="AM36" t="s" s="2">
         <v>330</v>
-      </c>
-      <c r="AM36" t="s" s="2">
-        <v>331</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>79</v>
@@ -5917,10 +5912,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5946,10 +5941,10 @@
         <v>165</v>
       </c>
       <c r="L37" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="M37" t="s" s="2">
         <v>333</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>334</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -5979,11 +5974,11 @@
         <v>169</v>
       </c>
       <c r="Y37" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="Z37" t="s" s="2">
         <v>335</v>
       </c>
-      <c r="Z37" t="s" s="2">
-        <v>336</v>
-      </c>
       <c r="AA37" t="s" s="2">
         <v>79</v>
       </c>
@@ -6000,7 +5995,7 @@
         <v>79</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>80</v>
@@ -6015,13 +6010,13 @@
         <v>102</v>
       </c>
       <c r="AK37" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="AL37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM37" t="s" s="2">
         <v>337</v>
-      </c>
-      <c r="AL37" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM37" t="s" s="2">
-        <v>338</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>79</v>
@@ -6032,10 +6027,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6058,13 +6053,13 @@
         <v>79</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="L38" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="M38" t="s" s="2">
         <v>340</v>
-      </c>
-      <c r="L38" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>341</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -6115,7 +6110,7 @@
         <v>79</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>80</v>
@@ -6130,7 +6125,7 @@
         <v>102</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>79</v>
@@ -6147,10 +6142,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6173,23 +6168,23 @@
         <v>91</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="L39" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="M39" t="s" s="2">
         <v>344</v>
       </c>
-      <c r="M39" t="s" s="2">
+      <c r="N39" t="s" s="2">
         <v>345</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>346</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="Q39" t="s" s="2">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="R39" t="s" s="2">
         <v>79</v>
@@ -6234,7 +6229,7 @@
         <v>79</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>80</v>
@@ -6252,7 +6247,7 @@
         <v>79</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>133</v>
@@ -6266,10 +6261,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6295,10 +6290,10 @@
         <v>165</v>
       </c>
       <c r="L40" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="M40" t="s" s="2">
         <v>350</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>351</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -6328,11 +6323,11 @@
         <v>169</v>
       </c>
       <c r="Y40" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="Z40" t="s" s="2">
         <v>352</v>
       </c>
-      <c r="Z40" t="s" s="2">
-        <v>353</v>
-      </c>
       <c r="AA40" t="s" s="2">
         <v>79</v>
       </c>
@@ -6349,7 +6344,7 @@
         <v>79</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>80</v>
@@ -6381,10 +6376,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6407,13 +6402,13 @@
         <v>79</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="L41" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="M41" t="s" s="2">
         <v>355</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>356</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -6464,7 +6459,7 @@
         <v>79</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>80</v>
@@ -6476,7 +6471,7 @@
         <v>79</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>79</v>
@@ -6496,10 +6491,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6522,13 +6517,13 @@
         <v>79</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="L42" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="M42" t="s" s="2">
         <v>298</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>299</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -6579,28 +6574,28 @@
         <v>79</v>
       </c>
       <c r="AF42" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="AG42" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH42" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI42" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ42" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK42" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL42" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM42" t="s" s="2">
         <v>300</v>
-      </c>
-      <c r="AG42" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH42" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AI42" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ42" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK42" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL42" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM42" t="s" s="2">
-        <v>301</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>79</v>
@@ -6611,10 +6606,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6643,7 +6638,7 @@
         <v>137</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="N43" t="s" s="2">
         <v>139</v>
@@ -6696,7 +6691,7 @@
         <v>79</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>80</v>
@@ -6717,7 +6712,7 @@
         <v>79</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>79</v>
@@ -6728,14 +6723,14 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
@@ -6757,10 +6752,10 @@
         <v>136</v>
       </c>
       <c r="L44" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="M44" t="s" s="2">
         <v>307</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>308</v>
       </c>
       <c r="N44" t="s" s="2">
         <v>139</v>
@@ -6815,7 +6810,7 @@
         <v>79</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>80</v>
@@ -6847,10 +6842,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6873,13 +6868,13 @@
         <v>79</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="L45" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="M45" t="s" s="2">
         <v>362</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>363</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -6930,7 +6925,7 @@
         <v>79</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>80</v>
@@ -6948,7 +6943,7 @@
         <v>79</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>133</v>
@@ -6962,10 +6957,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6991,10 +6986,10 @@
         <v>104</v>
       </c>
       <c r="L46" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="M46" t="s" s="2">
         <v>366</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>367</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -7045,7 +7040,7 @@
         <v>79</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>80</v>
@@ -7077,10 +7072,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7103,13 +7098,13 @@
         <v>79</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="L47" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="M47" t="s" s="2">
         <v>369</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>370</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -7160,7 +7155,7 @@
         <v>79</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>80</v>
@@ -7178,7 +7173,7 @@
         <v>79</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>133</v>
@@ -7192,10 +7187,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7218,13 +7213,13 @@
         <v>79</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="L48" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="M48" t="s" s="2">
         <v>373</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>374</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -7275,7 +7270,7 @@
         <v>79</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>80</v>
@@ -7293,7 +7288,7 @@
         <v>79</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>133</v>
@@ -7307,10 +7302,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7336,10 +7331,10 @@
         <v>165</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -7370,7 +7365,7 @@
       </c>
       <c r="Y49" s="2"/>
       <c r="Z49" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>79</v>
@@ -7388,7 +7383,7 @@
         <v>79</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>80</v>
@@ -7406,7 +7401,7 @@
         <v>79</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>133</v>
@@ -7420,10 +7415,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7449,10 +7444,10 @@
         <v>165</v>
       </c>
       <c r="L50" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="M50" t="s" s="2">
         <v>381</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>382</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -7482,11 +7477,11 @@
         <v>169</v>
       </c>
       <c r="Y50" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="Z50" t="s" s="2">
         <v>383</v>
       </c>
-      <c r="Z50" t="s" s="2">
-        <v>384</v>
-      </c>
       <c r="AA50" t="s" s="2">
         <v>79</v>
       </c>
@@ -7503,7 +7498,7 @@
         <v>79</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>80</v>
@@ -7535,10 +7530,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7561,16 +7556,16 @@
         <v>79</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="L51" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="M51" t="s" s="2">
         <v>386</v>
       </c>
-      <c r="M51" t="s" s="2">
+      <c r="N51" t="s" s="2">
         <v>387</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>388</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
@@ -7620,7 +7615,7 @@
         <v>79</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>80</v>
@@ -7638,10 +7633,10 @@
         <v>79</v>
       </c>
       <c r="AL51" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="AM51" t="s" s="2">
         <v>389</v>
-      </c>
-      <c r="AM51" t="s" s="2">
-        <v>390</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>79</v>
@@ -7652,10 +7647,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7678,13 +7673,13 @@
         <v>79</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="L52" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="M52" t="s" s="2">
         <v>298</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>299</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -7735,28 +7730,28 @@
         <v>79</v>
       </c>
       <c r="AF52" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="AG52" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH52" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM52" t="s" s="2">
         <v>300</v>
-      </c>
-      <c r="AG52" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH52" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AI52" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ52" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK52" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL52" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM52" t="s" s="2">
-        <v>301</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>79</v>
@@ -7767,10 +7762,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7799,7 +7794,7 @@
         <v>137</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="N53" t="s" s="2">
         <v>139</v>
@@ -7852,7 +7847,7 @@
         <v>79</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>80</v>
@@ -7873,7 +7868,7 @@
         <v>79</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>79</v>
@@ -7884,14 +7879,14 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
@@ -7913,10 +7908,10 @@
         <v>136</v>
       </c>
       <c r="L54" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="M54" t="s" s="2">
         <v>307</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>308</v>
       </c>
       <c r="N54" t="s" s="2">
         <v>139</v>
@@ -7971,7 +7966,7 @@
         <v>79</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>80</v>
@@ -8003,10 +7998,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8029,13 +8024,13 @@
         <v>79</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="L55" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="M55" t="s" s="2">
         <v>395</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>396</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -8086,7 +8081,7 @@
         <v>79</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>80</v>
@@ -8104,10 +8099,10 @@
         <v>79</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>79</v>
@@ -8118,10 +8113,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8144,13 +8139,13 @@
         <v>79</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="L56" t="s" s="2">
         <v>399</v>
       </c>
-      <c r="L56" t="s" s="2">
+      <c r="M56" t="s" s="2">
         <v>400</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>401</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -8201,7 +8196,7 @@
         <v>79</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>80</v>
@@ -8219,10 +8214,10 @@
         <v>79</v>
       </c>
       <c r="AL56" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="AM56" t="s" s="2">
         <v>402</v>
-      </c>
-      <c r="AM56" t="s" s="2">
-        <v>403</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>79</v>
@@ -8233,10 +8228,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8259,13 +8254,13 @@
         <v>79</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="L57" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="M57" t="s" s="2">
         <v>405</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>406</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -8316,7 +8311,7 @@
         <v>79</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>80</v>
@@ -8334,10 +8329,10 @@
         <v>79</v>
       </c>
       <c r="AL57" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="AM57" t="s" s="2">
         <v>407</v>
-      </c>
-      <c r="AM57" t="s" s="2">
-        <v>408</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>79</v>
@@ -8348,10 +8343,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8374,13 +8369,13 @@
         <v>79</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="L58" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="M58" t="s" s="2">
         <v>410</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>411</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -8431,7 +8426,7 @@
         <v>79</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>80</v>
@@ -8463,10 +8458,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8489,13 +8484,13 @@
         <v>79</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="L59" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="M59" t="s" s="2">
         <v>298</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>299</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -8546,28 +8541,28 @@
         <v>79</v>
       </c>
       <c r="AF59" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="AG59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH59" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM59" t="s" s="2">
         <v>300</v>
-      </c>
-      <c r="AG59" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH59" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AI59" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ59" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK59" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL59" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM59" t="s" s="2">
-        <v>301</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>79</v>
@@ -8578,10 +8573,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8610,7 +8605,7 @@
         <v>137</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="N60" t="s" s="2">
         <v>139</v>
@@ -8663,7 +8658,7 @@
         <v>79</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>80</v>
@@ -8684,7 +8679,7 @@
         <v>79</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>79</v>
@@ -8695,14 +8690,14 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
@@ -8724,10 +8719,10 @@
         <v>136</v>
       </c>
       <c r="L61" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="M61" t="s" s="2">
         <v>307</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>308</v>
       </c>
       <c r="N61" t="s" s="2">
         <v>139</v>
@@ -8782,7 +8777,7 @@
         <v>79</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>80</v>
@@ -8814,10 +8809,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8840,13 +8835,13 @@
         <v>79</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="L62" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="M62" t="s" s="2">
         <v>416</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>417</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -8897,7 +8892,7 @@
         <v>79</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>80</v>
@@ -8929,10 +8924,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -8955,13 +8950,13 @@
         <v>79</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="L63" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="M63" t="s" s="2">
         <v>419</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>420</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -9012,7 +9007,7 @@
         <v>79</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>80</v>
@@ -9044,10 +9039,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9073,10 +9068,10 @@
         <v>165</v>
       </c>
       <c r="L64" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="M64" t="s" s="2">
         <v>422</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>423</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -9106,11 +9101,11 @@
         <v>169</v>
       </c>
       <c r="Y64" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="Z64" t="s" s="2">
         <v>424</v>
       </c>
-      <c r="Z64" t="s" s="2">
-        <v>425</v>
-      </c>
       <c r="AA64" t="s" s="2">
         <v>79</v>
       </c>
@@ -9127,7 +9122,7 @@
         <v>79</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>80</v>
@@ -9159,10 +9154,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9185,16 +9180,16 @@
         <v>79</v>
       </c>
       <c r="K65" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="L65" t="s" s="2">
         <v>427</v>
       </c>
-      <c r="L65" t="s" s="2">
+      <c r="M65" t="s" s="2">
         <v>428</v>
       </c>
-      <c r="M65" t="s" s="2">
+      <c r="N65" t="s" s="2">
         <v>429</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>430</v>
       </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
@@ -9244,7 +9239,7 @@
         <v>79</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>90</v>
@@ -9276,10 +9271,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9302,16 +9297,16 @@
         <v>79</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="L66" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="M66" t="s" s="2">
         <v>432</v>
       </c>
-      <c r="M66" t="s" s="2">
-        <v>433</v>
-      </c>
       <c r="N66" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
@@ -9361,7 +9356,7 @@
         <v>79</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>80</v>

--- a/output/StructureDefinition-ImmunizationCL.xlsx
+++ b/output/StructureDefinition-ImmunizationCL.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2450" uniqueCount="433">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2449" uniqueCount="432">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-25T09:03:09-04:00</t>
+    <t>2024-06-25T09:29:41-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -545,10 +545,7 @@
     <t>example</t>
   </si>
   <si>
-    <t>The reason why a vaccine was not administered.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/immunization-status-reason</t>
+    <t>https://hl7chile.cl/fhir/ig/clcore/ValueSet/VSRazonNOTinm</t>
   </si>
   <si>
     <t>Event.statusReason</t>
@@ -3195,11 +3192,9 @@
       <c r="X13" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="Y13" t="s" s="2">
+      <c r="Y13" s="2"/>
+      <c r="Z13" t="s" s="2">
         <v>170</v>
-      </c>
-      <c r="Z13" t="s" s="2">
-        <v>171</v>
       </c>
       <c r="AA13" t="s" s="2">
         <v>79</v>
@@ -3232,13 +3227,13 @@
         <v>102</v>
       </c>
       <c r="AK13" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="AL13" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM13" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="AL13" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM13" t="s" s="2">
-        <v>173</v>
       </c>
       <c r="AN13" t="s" s="2">
         <v>79</v>
@@ -3249,10 +3244,10 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3278,10 +3273,10 @@
         <v>165</v>
       </c>
       <c r="L14" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="M14" t="s" s="2">
         <v>175</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>176</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -3312,7 +3307,7 @@
       </c>
       <c r="Y14" s="2"/>
       <c r="Z14" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>79</v>
@@ -3330,7 +3325,7 @@
         <v>79</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>90</v>
@@ -3345,27 +3340,27 @@
         <v>102</v>
       </c>
       <c r="AK14" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="AL14" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="AL14" t="s" s="2">
+      <c r="AM14" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="AM14" t="s" s="2">
+      <c r="AN14" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="AN14" t="s" s="2">
+      <c r="AO14" t="s" s="2">
         <v>181</v>
-      </c>
-      <c r="AO14" t="s" s="2">
-        <v>182</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3388,13 +3383,13 @@
         <v>91</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="L15" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="M15" t="s" s="2">
         <v>185</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>186</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -3445,7 +3440,7 @@
         <v>79</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>90</v>
@@ -3460,16 +3455,16 @@
         <v>102</v>
       </c>
       <c r="AK15" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="AL15" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="AL15" t="s" s="2">
+      <c r="AM15" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="AM15" t="s" s="2">
+      <c r="AN15" t="s" s="2">
         <v>189</v>
-      </c>
-      <c r="AN15" t="s" s="2">
-        <v>190</v>
       </c>
       <c r="AO15" t="s" s="2">
         <v>79</v>
@@ -3477,10 +3472,10 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3503,13 +3498,13 @@
         <v>79</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="L16" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="M16" t="s" s="2">
         <v>193</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>194</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -3560,7 +3555,7 @@
         <v>79</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>80</v>
@@ -3575,16 +3570,16 @@
         <v>102</v>
       </c>
       <c r="AK16" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="AL16" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="AL16" t="s" s="2">
+      <c r="AM16" t="s" s="2">
         <v>196</v>
       </c>
-      <c r="AM16" t="s" s="2">
+      <c r="AN16" t="s" s="2">
         <v>197</v>
-      </c>
-      <c r="AN16" t="s" s="2">
-        <v>198</v>
       </c>
       <c r="AO16" t="s" s="2">
         <v>79</v>
@@ -3592,10 +3587,10 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3618,16 +3613,16 @@
         <v>91</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="M17" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="M17" t="s" s="2">
+      <c r="N17" t="s" s="2">
         <v>202</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>203</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -3665,17 +3660,17 @@
         <v>79</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AC17" s="2"/>
       <c r="AD17" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>90</v>
@@ -3690,30 +3685,30 @@
         <v>102</v>
       </c>
       <c r="AK17" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="AL17" t="s" s="2">
         <v>206</v>
       </c>
-      <c r="AL17" t="s" s="2">
+      <c r="AM17" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="AM17" t="s" s="2">
+      <c r="AN17" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="AN17" t="s" s="2">
+      <c r="AO17" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="AO17" t="s" s="2">
-        <v>210</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="B18" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="C18" t="s" s="2">
         <v>211</v>
-      </c>
-      <c r="B18" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="C18" t="s" s="2">
-        <v>212</v>
       </c>
       <c r="D18" t="s" s="2">
         <v>79</v>
@@ -3735,16 +3730,16 @@
         <v>91</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>213</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="M18" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="M18" t="s" s="2">
-        <v>215</v>
-      </c>
       <c r="N18" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -3794,7 +3789,7 @@
         <v>79</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>90</v>
@@ -3809,30 +3804,30 @@
         <v>102</v>
       </c>
       <c r="AK18" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="AL18" t="s" s="2">
         <v>206</v>
       </c>
-      <c r="AL18" t="s" s="2">
+      <c r="AM18" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="AM18" t="s" s="2">
+      <c r="AN18" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="AN18" t="s" s="2">
+      <c r="AO18" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="AO18" t="s" s="2">
-        <v>210</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="B19" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="C19" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="B19" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="C19" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="D19" t="s" s="2">
         <v>79</v>
@@ -3854,16 +3849,16 @@
         <v>91</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="L19" t="s" s="2">
-        <v>219</v>
-      </c>
       <c r="M19" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -3913,7 +3908,7 @@
         <v>79</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>90</v>
@@ -3928,27 +3923,27 @@
         <v>102</v>
       </c>
       <c r="AK19" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="AL19" t="s" s="2">
         <v>206</v>
       </c>
-      <c r="AL19" t="s" s="2">
+      <c r="AM19" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="AM19" t="s" s="2">
+      <c r="AN19" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="AN19" t="s" s="2">
+      <c r="AO19" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="AO19" t="s" s="2">
-        <v>210</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3971,13 +3966,13 @@
         <v>79</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="L20" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="M20" t="s" s="2">
         <v>221</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>222</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -4028,7 +4023,7 @@
         <v>79</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>80</v>
@@ -4049,10 +4044,10 @@
         <v>79</v>
       </c>
       <c r="AM20" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="AN20" t="s" s="2">
         <v>223</v>
-      </c>
-      <c r="AN20" t="s" s="2">
-        <v>224</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>79</v>
@@ -4060,10 +4055,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4086,16 +4081,16 @@
         <v>91</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="M21" t="s" s="2">
+      <c r="N21" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -4145,7 +4140,7 @@
         <v>79</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>80</v>
@@ -4163,13 +4158,13 @@
         <v>79</v>
       </c>
       <c r="AL21" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="AM21" t="s" s="2">
         <v>230</v>
       </c>
-      <c r="AM21" t="s" s="2">
+      <c r="AN21" t="s" s="2">
         <v>231</v>
-      </c>
-      <c r="AN21" t="s" s="2">
-        <v>232</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>79</v>
@@ -4177,10 +4172,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4206,13 +4201,13 @@
         <v>165</v>
       </c>
       <c r="L22" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="M22" t="s" s="2">
         <v>234</v>
       </c>
-      <c r="M22" t="s" s="2">
+      <c r="N22" t="s" s="2">
         <v>235</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>236</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -4241,11 +4236,11 @@
         <v>169</v>
       </c>
       <c r="Y22" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="Z22" t="s" s="2">
         <v>237</v>
       </c>
-      <c r="Z22" t="s" s="2">
-        <v>238</v>
-      </c>
       <c r="AA22" t="s" s="2">
         <v>79</v>
       </c>
@@ -4262,7 +4257,7 @@
         <v>79</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>80</v>
@@ -4280,13 +4275,13 @@
         <v>79</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>79</v>
@@ -4294,10 +4289,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4320,13 +4315,13 @@
         <v>79</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>241</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>242</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>243</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -4377,7 +4372,7 @@
         <v>79</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>80</v>
@@ -4392,16 +4387,16 @@
         <v>102</v>
       </c>
       <c r="AK23" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="AL23" t="s" s="2">
         <v>244</v>
       </c>
-      <c r="AL23" t="s" s="2">
+      <c r="AM23" t="s" s="2">
         <v>245</v>
       </c>
-      <c r="AM23" t="s" s="2">
+      <c r="AN23" t="s" s="2">
         <v>246</v>
-      </c>
-      <c r="AN23" t="s" s="2">
-        <v>247</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>79</v>
@@ -4409,10 +4404,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4435,13 +4430,13 @@
         <v>79</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="L24" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="M24" t="s" s="2">
         <v>250</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>251</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -4492,7 +4487,7 @@
         <v>79</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>80</v>
@@ -4510,24 +4505,24 @@
         <v>79</v>
       </c>
       <c r="AL24" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="AM24" t="s" s="2">
         <v>252</v>
       </c>
-      <c r="AM24" t="s" s="2">
+      <c r="AN24" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO24" t="s" s="2">
         <v>253</v>
-      </c>
-      <c r="AN24" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO24" t="s" s="2">
-        <v>254</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4550,13 +4545,13 @@
         <v>79</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="L25" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="M25" t="s" s="2">
         <v>256</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>257</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -4607,7 +4602,7 @@
         <v>79</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>80</v>
@@ -4625,24 +4620,24 @@
         <v>79</v>
       </c>
       <c r="AL25" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="AM25" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="AM25" t="s" s="2">
+      <c r="AN25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO25" t="s" s="2">
         <v>259</v>
-      </c>
-      <c r="AN25" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO25" t="s" s="2">
-        <v>260</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4665,13 +4660,13 @@
         <v>79</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>262</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>263</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>264</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -4722,7 +4717,7 @@
         <v>79</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>80</v>
@@ -4740,10 +4735,10 @@
         <v>79</v>
       </c>
       <c r="AL26" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="AM26" t="s" s="2">
         <v>265</v>
-      </c>
-      <c r="AM26" t="s" s="2">
-        <v>266</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>79</v>
@@ -4754,10 +4749,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4783,10 +4778,10 @@
         <v>165</v>
       </c>
       <c r="L27" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="M27" t="s" s="2">
         <v>268</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>269</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -4816,11 +4811,11 @@
         <v>169</v>
       </c>
       <c r="Y27" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="Z27" t="s" s="2">
         <v>270</v>
       </c>
-      <c r="Z27" t="s" s="2">
-        <v>271</v>
-      </c>
       <c r="AA27" t="s" s="2">
         <v>79</v>
       </c>
@@ -4837,7 +4832,7 @@
         <v>79</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>80</v>
@@ -4855,24 +4850,24 @@
         <v>79</v>
       </c>
       <c r="AL27" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="AM27" t="s" s="2">
         <v>272</v>
       </c>
-      <c r="AM27" t="s" s="2">
+      <c r="AN27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO27" t="s" s="2">
         <v>273</v>
-      </c>
-      <c r="AN27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO27" t="s" s="2">
-        <v>274</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4898,10 +4893,10 @@
         <v>165</v>
       </c>
       <c r="L28" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="M28" t="s" s="2">
         <v>276</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>277</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -4931,11 +4926,11 @@
         <v>169</v>
       </c>
       <c r="Y28" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="Z28" t="s" s="2">
         <v>278</v>
       </c>
-      <c r="Z28" t="s" s="2">
-        <v>279</v>
-      </c>
       <c r="AA28" t="s" s="2">
         <v>79</v>
       </c>
@@ -4952,7 +4947,7 @@
         <v>79</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>80</v>
@@ -4970,24 +4965,24 @@
         <v>79</v>
       </c>
       <c r="AL28" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="AM28" t="s" s="2">
         <v>280</v>
       </c>
-      <c r="AM28" t="s" s="2">
+      <c r="AN28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO28" t="s" s="2">
         <v>281</v>
-      </c>
-      <c r="AN28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO28" t="s" s="2">
-        <v>282</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5010,13 +5005,13 @@
         <v>79</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>284</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="M29" t="s" s="2">
         <v>285</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>286</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -5067,7 +5062,7 @@
         <v>79</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>80</v>
@@ -5085,10 +5080,10 @@
         <v>79</v>
       </c>
       <c r="AL29" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="AM29" t="s" s="2">
         <v>287</v>
-      </c>
-      <c r="AM29" t="s" s="2">
-        <v>288</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>79</v>
@@ -5099,10 +5094,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5125,13 +5120,13 @@
         <v>91</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>290</v>
       </c>
-      <c r="L30" t="s" s="2">
+      <c r="M30" t="s" s="2">
         <v>291</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>292</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -5182,7 +5177,7 @@
         <v>79</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>80</v>
@@ -5197,13 +5192,13 @@
         <v>102</v>
       </c>
       <c r="AK30" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="AL30" t="s" s="2">
         <v>293</v>
       </c>
-      <c r="AL30" t="s" s="2">
+      <c r="AM30" t="s" s="2">
         <v>294</v>
-      </c>
-      <c r="AM30" t="s" s="2">
-        <v>295</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>79</v>
@@ -5214,10 +5209,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5240,13 +5235,13 @@
         <v>79</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="L31" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="M31" t="s" s="2">
         <v>297</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>298</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -5297,28 +5292,28 @@
         <v>79</v>
       </c>
       <c r="AF31" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="AG31" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH31" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM31" t="s" s="2">
         <v>299</v>
-      </c>
-      <c r="AG31" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH31" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AI31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM31" t="s" s="2">
-        <v>300</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>79</v>
@@ -5329,10 +5324,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5361,7 +5356,7 @@
         <v>137</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="N32" t="s" s="2">
         <v>139</v>
@@ -5414,7 +5409,7 @@
         <v>79</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>80</v>
@@ -5435,7 +5430,7 @@
         <v>79</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>79</v>
@@ -5446,14 +5441,14 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
@@ -5475,10 +5470,10 @@
         <v>136</v>
       </c>
       <c r="L33" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="M33" t="s" s="2">
         <v>306</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>307</v>
       </c>
       <c r="N33" t="s" s="2">
         <v>139</v>
@@ -5533,7 +5528,7 @@
         <v>79</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>80</v>
@@ -5565,10 +5560,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5594,10 +5589,10 @@
         <v>165</v>
       </c>
       <c r="L34" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="M34" t="s" s="2">
         <v>310</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>311</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -5624,14 +5619,14 @@
         <v>79</v>
       </c>
       <c r="X34" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="Y34" t="s" s="2">
         <v>312</v>
       </c>
-      <c r="Y34" t="s" s="2">
+      <c r="Z34" t="s" s="2">
         <v>313</v>
       </c>
-      <c r="Z34" t="s" s="2">
-        <v>314</v>
-      </c>
       <c r="AA34" t="s" s="2">
         <v>79</v>
       </c>
@@ -5648,7 +5643,7 @@
         <v>79</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>80</v>
@@ -5663,13 +5658,13 @@
         <v>102</v>
       </c>
       <c r="AK34" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="AL34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM34" t="s" s="2">
         <v>315</v>
-      </c>
-      <c r="AL34" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM34" t="s" s="2">
-        <v>316</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>79</v>
@@ -5680,10 +5675,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5706,16 +5701,16 @@
         <v>91</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>318</v>
       </c>
-      <c r="L35" t="s" s="2">
+      <c r="M35" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="N35" t="s" s="2">
         <v>319</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>320</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -5765,7 +5760,7 @@
         <v>79</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>90</v>
@@ -5780,16 +5775,16 @@
         <v>102</v>
       </c>
       <c r="AK35" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="AL35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM35" t="s" s="2">
         <v>321</v>
       </c>
-      <c r="AL35" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM35" t="s" s="2">
+      <c r="AN35" t="s" s="2">
         <v>322</v>
-      </c>
-      <c r="AN35" t="s" s="2">
-        <v>323</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>79</v>
@@ -5797,10 +5792,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5823,13 +5818,13 @@
         <v>91</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>325</v>
       </c>
-      <c r="L36" t="s" s="2">
+      <c r="M36" t="s" s="2">
         <v>326</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>327</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -5880,7 +5875,7 @@
         <v>79</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>80</v>
@@ -5895,13 +5890,13 @@
         <v>102</v>
       </c>
       <c r="AK36" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="AL36" t="s" s="2">
         <v>328</v>
       </c>
-      <c r="AL36" t="s" s="2">
+      <c r="AM36" t="s" s="2">
         <v>329</v>
-      </c>
-      <c r="AM36" t="s" s="2">
-        <v>330</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>79</v>
@@ -5912,10 +5907,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5941,10 +5936,10 @@
         <v>165</v>
       </c>
       <c r="L37" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="M37" t="s" s="2">
         <v>332</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>333</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -5974,11 +5969,11 @@
         <v>169</v>
       </c>
       <c r="Y37" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="Z37" t="s" s="2">
         <v>334</v>
       </c>
-      <c r="Z37" t="s" s="2">
-        <v>335</v>
-      </c>
       <c r="AA37" t="s" s="2">
         <v>79</v>
       </c>
@@ -5995,7 +5990,7 @@
         <v>79</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>80</v>
@@ -6010,13 +6005,13 @@
         <v>102</v>
       </c>
       <c r="AK37" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="AL37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM37" t="s" s="2">
         <v>336</v>
-      </c>
-      <c r="AL37" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM37" t="s" s="2">
-        <v>337</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>79</v>
@@ -6027,10 +6022,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6053,13 +6048,13 @@
         <v>79</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="L38" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="M38" t="s" s="2">
         <v>339</v>
-      </c>
-      <c r="L38" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>340</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -6110,7 +6105,7 @@
         <v>79</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>80</v>
@@ -6125,7 +6120,7 @@
         <v>102</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>79</v>
@@ -6142,10 +6137,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6168,23 +6163,23 @@
         <v>91</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="L39" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="M39" t="s" s="2">
         <v>343</v>
       </c>
-      <c r="M39" t="s" s="2">
+      <c r="N39" t="s" s="2">
         <v>344</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>345</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="Q39" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="R39" t="s" s="2">
         <v>79</v>
@@ -6229,7 +6224,7 @@
         <v>79</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>80</v>
@@ -6247,7 +6242,7 @@
         <v>79</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>133</v>
@@ -6261,10 +6256,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6290,10 +6285,10 @@
         <v>165</v>
       </c>
       <c r="L40" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="M40" t="s" s="2">
         <v>349</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>350</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -6323,11 +6318,11 @@
         <v>169</v>
       </c>
       <c r="Y40" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="Z40" t="s" s="2">
         <v>351</v>
       </c>
-      <c r="Z40" t="s" s="2">
-        <v>352</v>
-      </c>
       <c r="AA40" t="s" s="2">
         <v>79</v>
       </c>
@@ -6344,7 +6339,7 @@
         <v>79</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>80</v>
@@ -6376,10 +6371,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6402,13 +6397,13 @@
         <v>79</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="L41" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="M41" t="s" s="2">
         <v>354</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>355</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -6459,7 +6454,7 @@
         <v>79</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>80</v>
@@ -6471,7 +6466,7 @@
         <v>79</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>79</v>
@@ -6491,10 +6486,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6517,13 +6512,13 @@
         <v>79</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="L42" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="M42" t="s" s="2">
         <v>297</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>298</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -6574,28 +6569,28 @@
         <v>79</v>
       </c>
       <c r="AF42" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="AG42" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH42" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI42" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ42" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK42" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL42" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM42" t="s" s="2">
         <v>299</v>
-      </c>
-      <c r="AG42" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH42" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AI42" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ42" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK42" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL42" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM42" t="s" s="2">
-        <v>300</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>79</v>
@@ -6606,10 +6601,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6638,7 +6633,7 @@
         <v>137</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="N43" t="s" s="2">
         <v>139</v>
@@ -6691,7 +6686,7 @@
         <v>79</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>80</v>
@@ -6712,7 +6707,7 @@
         <v>79</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>79</v>
@@ -6723,14 +6718,14 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
@@ -6752,10 +6747,10 @@
         <v>136</v>
       </c>
       <c r="L44" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="M44" t="s" s="2">
         <v>306</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>307</v>
       </c>
       <c r="N44" t="s" s="2">
         <v>139</v>
@@ -6810,7 +6805,7 @@
         <v>79</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>80</v>
@@ -6842,10 +6837,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6868,13 +6863,13 @@
         <v>79</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="L45" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="M45" t="s" s="2">
         <v>361</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>362</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -6925,7 +6920,7 @@
         <v>79</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>80</v>
@@ -6943,7 +6938,7 @@
         <v>79</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>133</v>
@@ -6957,10 +6952,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6986,10 +6981,10 @@
         <v>104</v>
       </c>
       <c r="L46" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="M46" t="s" s="2">
         <v>365</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>366</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -7040,7 +7035,7 @@
         <v>79</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>80</v>
@@ -7072,10 +7067,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7098,13 +7093,13 @@
         <v>79</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="L47" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="M47" t="s" s="2">
         <v>368</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>369</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -7155,7 +7150,7 @@
         <v>79</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>80</v>
@@ -7173,7 +7168,7 @@
         <v>79</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>133</v>
@@ -7187,10 +7182,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7213,13 +7208,13 @@
         <v>79</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="L48" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="M48" t="s" s="2">
         <v>372</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>373</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -7270,7 +7265,7 @@
         <v>79</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>80</v>
@@ -7288,7 +7283,7 @@
         <v>79</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>133</v>
@@ -7302,10 +7297,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7331,10 +7326,10 @@
         <v>165</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -7365,7 +7360,7 @@
       </c>
       <c r="Y49" s="2"/>
       <c r="Z49" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>79</v>
@@ -7383,7 +7378,7 @@
         <v>79</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>80</v>
@@ -7401,7 +7396,7 @@
         <v>79</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>133</v>
@@ -7415,10 +7410,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7444,10 +7439,10 @@
         <v>165</v>
       </c>
       <c r="L50" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="M50" t="s" s="2">
         <v>380</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>381</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -7477,11 +7472,11 @@
         <v>169</v>
       </c>
       <c r="Y50" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="Z50" t="s" s="2">
         <v>382</v>
       </c>
-      <c r="Z50" t="s" s="2">
-        <v>383</v>
-      </c>
       <c r="AA50" t="s" s="2">
         <v>79</v>
       </c>
@@ -7498,7 +7493,7 @@
         <v>79</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>80</v>
@@ -7530,10 +7525,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7556,16 +7551,16 @@
         <v>79</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="L51" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="M51" t="s" s="2">
         <v>385</v>
       </c>
-      <c r="M51" t="s" s="2">
+      <c r="N51" t="s" s="2">
         <v>386</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>387</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
@@ -7615,7 +7610,7 @@
         <v>79</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>80</v>
@@ -7633,10 +7628,10 @@
         <v>79</v>
       </c>
       <c r="AL51" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="AM51" t="s" s="2">
         <v>388</v>
-      </c>
-      <c r="AM51" t="s" s="2">
-        <v>389</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>79</v>
@@ -7647,10 +7642,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7673,13 +7668,13 @@
         <v>79</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="L52" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="M52" t="s" s="2">
         <v>297</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>298</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -7730,28 +7725,28 @@
         <v>79</v>
       </c>
       <c r="AF52" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="AG52" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH52" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM52" t="s" s="2">
         <v>299</v>
-      </c>
-      <c r="AG52" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH52" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AI52" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ52" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK52" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL52" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM52" t="s" s="2">
-        <v>300</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>79</v>
@@ -7762,10 +7757,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7794,7 +7789,7 @@
         <v>137</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="N53" t="s" s="2">
         <v>139</v>
@@ -7847,7 +7842,7 @@
         <v>79</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>80</v>
@@ -7868,7 +7863,7 @@
         <v>79</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>79</v>
@@ -7879,14 +7874,14 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
@@ -7908,10 +7903,10 @@
         <v>136</v>
       </c>
       <c r="L54" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="M54" t="s" s="2">
         <v>306</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>307</v>
       </c>
       <c r="N54" t="s" s="2">
         <v>139</v>
@@ -7966,7 +7961,7 @@
         <v>79</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>80</v>
@@ -7998,10 +7993,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8024,13 +8019,13 @@
         <v>79</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="L55" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="M55" t="s" s="2">
         <v>394</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>395</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -8081,7 +8076,7 @@
         <v>79</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>80</v>
@@ -8099,10 +8094,10 @@
         <v>79</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>79</v>
@@ -8113,10 +8108,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8139,13 +8134,13 @@
         <v>79</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="L56" t="s" s="2">
         <v>398</v>
       </c>
-      <c r="L56" t="s" s="2">
+      <c r="M56" t="s" s="2">
         <v>399</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>400</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -8196,7 +8191,7 @@
         <v>79</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>80</v>
@@ -8214,10 +8209,10 @@
         <v>79</v>
       </c>
       <c r="AL56" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="AM56" t="s" s="2">
         <v>401</v>
-      </c>
-      <c r="AM56" t="s" s="2">
-        <v>402</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>79</v>
@@ -8228,10 +8223,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8254,13 +8249,13 @@
         <v>79</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="L57" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="M57" t="s" s="2">
         <v>404</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>405</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -8311,7 +8306,7 @@
         <v>79</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>80</v>
@@ -8329,10 +8324,10 @@
         <v>79</v>
       </c>
       <c r="AL57" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="AM57" t="s" s="2">
         <v>406</v>
-      </c>
-      <c r="AM57" t="s" s="2">
-        <v>407</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>79</v>
@@ -8343,10 +8338,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8369,13 +8364,13 @@
         <v>79</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="L58" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="M58" t="s" s="2">
         <v>409</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>410</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -8426,7 +8421,7 @@
         <v>79</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>80</v>
@@ -8458,10 +8453,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8484,13 +8479,13 @@
         <v>79</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="L59" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="M59" t="s" s="2">
         <v>297</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>298</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -8541,28 +8536,28 @@
         <v>79</v>
       </c>
       <c r="AF59" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="AG59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH59" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM59" t="s" s="2">
         <v>299</v>
-      </c>
-      <c r="AG59" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH59" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AI59" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ59" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK59" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL59" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM59" t="s" s="2">
-        <v>300</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>79</v>
@@ -8573,10 +8568,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8605,7 +8600,7 @@
         <v>137</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="N60" t="s" s="2">
         <v>139</v>
@@ -8658,7 +8653,7 @@
         <v>79</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>80</v>
@@ -8679,7 +8674,7 @@
         <v>79</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>79</v>
@@ -8690,14 +8685,14 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
@@ -8719,10 +8714,10 @@
         <v>136</v>
       </c>
       <c r="L61" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="M61" t="s" s="2">
         <v>306</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>307</v>
       </c>
       <c r="N61" t="s" s="2">
         <v>139</v>
@@ -8777,7 +8772,7 @@
         <v>79</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>80</v>
@@ -8809,10 +8804,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8835,13 +8830,13 @@
         <v>79</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="L62" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="M62" t="s" s="2">
         <v>415</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>416</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -8892,7 +8887,7 @@
         <v>79</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>80</v>
@@ -8924,10 +8919,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -8950,13 +8945,13 @@
         <v>79</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="L63" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="M63" t="s" s="2">
         <v>418</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>419</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -9007,7 +9002,7 @@
         <v>79</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>80</v>
@@ -9039,10 +9034,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9068,10 +9063,10 @@
         <v>165</v>
       </c>
       <c r="L64" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="M64" t="s" s="2">
         <v>421</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>422</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -9101,11 +9096,11 @@
         <v>169</v>
       </c>
       <c r="Y64" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="Z64" t="s" s="2">
         <v>423</v>
       </c>
-      <c r="Z64" t="s" s="2">
-        <v>424</v>
-      </c>
       <c r="AA64" t="s" s="2">
         <v>79</v>
       </c>
@@ -9122,7 +9117,7 @@
         <v>79</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>80</v>
@@ -9154,10 +9149,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9180,16 +9175,16 @@
         <v>79</v>
       </c>
       <c r="K65" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="L65" t="s" s="2">
         <v>426</v>
       </c>
-      <c r="L65" t="s" s="2">
+      <c r="M65" t="s" s="2">
         <v>427</v>
       </c>
-      <c r="M65" t="s" s="2">
+      <c r="N65" t="s" s="2">
         <v>428</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>429</v>
       </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
@@ -9239,7 +9234,7 @@
         <v>79</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>90</v>
@@ -9271,10 +9266,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9297,16 +9292,16 @@
         <v>79</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="L66" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="M66" t="s" s="2">
         <v>431</v>
       </c>
-      <c r="M66" t="s" s="2">
-        <v>432</v>
-      </c>
       <c r="N66" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
@@ -9356,7 +9351,7 @@
         <v>79</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>80</v>

--- a/output/StructureDefinition-ImmunizationCL.xlsx
+++ b/output/StructureDefinition-ImmunizationCL.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-25T09:29:41-04:00</t>
+    <t>2024-06-26T18:33:17-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-ImmunizationCL.xlsx
+++ b/output/StructureDefinition-ImmunizationCL.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-26T18:33:17-04:00</t>
+    <t>2024-06-27T08:59:20-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-ImmunizationCL.xlsx
+++ b/output/StructureDefinition-ImmunizationCL.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-27T08:59:20-04:00</t>
+    <t>2024-07-18T16:07:51-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-ImmunizationCL.xlsx
+++ b/output/StructureDefinition-ImmunizationCL.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-18T16:07:51-04:00</t>
+    <t>2024-07-26T10:55:50-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-ImmunizationCL.xlsx
+++ b/output/StructureDefinition-ImmunizationCL.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-26T10:55:50-04:00</t>
+    <t>2024-07-29T12:24:08-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-ImmunizationCL.xlsx
+++ b/output/StructureDefinition-ImmunizationCL.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.8.12</t>
+    <t>1.9.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-29T12:24:08-04:00</t>
+    <t>2024-08-05T12:01:08-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-ImmunizationCL.xlsx
+++ b/output/StructureDefinition-ImmunizationCL.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-05T12:01:08-04:00</t>
+    <t>2024-08-06T12:35:59-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-ImmunizationCL.xlsx
+++ b/output/StructureDefinition-ImmunizationCL.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-06T12:35:59-04:00</t>
+    <t>2024-08-06T16:31:07-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-ImmunizationCL.xlsx
+++ b/output/StructureDefinition-ImmunizationCL.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-06T16:31:07-04:00</t>
+    <t>2024-08-07T09:55:47-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-ImmunizationCL.xlsx
+++ b/output/StructureDefinition-ImmunizationCL.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-07T09:55:47-04:00</t>
+    <t>2024-08-07T14:23:12-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-ImmunizationCL.xlsx
+++ b/output/StructureDefinition-ImmunizationCL.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-07T14:23:12-04:00</t>
+    <t>2024-08-08T12:45:25-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-ImmunizationCL.xlsx
+++ b/output/StructureDefinition-ImmunizationCL.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-08T12:45:25-04:00</t>
+    <t>2024-08-13T08:05:28-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
